--- a/Code/Results/Cases/Case_3_60/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_60/res_line/pl_mw.xlsx
@@ -412,13 +412,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.747444888556402</v>
+        <v>3.747444888556629</v>
       </c>
       <c r="C2">
-        <v>1.047016024959191</v>
+        <v>1.047016024958936</v>
       </c>
       <c r="D2">
-        <v>0.1373117379693127</v>
+        <v>0.1373117379692133</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -450,13 +450,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.224480742787989</v>
+        <v>3.224480742787819</v>
       </c>
       <c r="C3">
-        <v>0.9043418237834828</v>
+        <v>0.9043418237833407</v>
       </c>
       <c r="D3">
-        <v>0.1191847702814499</v>
+        <v>0.1191847702813504</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -465,7 +465,7 @@
         <v>1.983053276109715</v>
       </c>
       <c r="G3">
-        <v>1.268174841839453</v>
+        <v>1.268174841839439</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -488,28 +488,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.909045509289172</v>
+        <v>2.909045509289115</v>
       </c>
       <c r="C4">
-        <v>0.8182242893206251</v>
+        <v>0.8182242893205682</v>
       </c>
       <c r="D4">
-        <v>0.1083052621552483</v>
+        <v>0.1083052621553406</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.81236110412371</v>
+        <v>1.812361104123738</v>
       </c>
       <c r="G4">
-        <v>1.166032334501978</v>
+        <v>1.166032334502006</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.539446800007724</v>
+        <v>1.539446800007681</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -529,7 +529,7 @@
         <v>2.781672328088462</v>
       </c>
       <c r="C5">
-        <v>0.7834295372360032</v>
+        <v>0.7834295372360316</v>
       </c>
       <c r="D5">
         <v>0.1039208465906825</v>
@@ -538,7 +538,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.744644212750259</v>
+        <v>1.744644212750273</v>
       </c>
       <c r="G5">
         <v>1.125634522090138</v>
@@ -567,16 +567,16 @@
         <v>2.760585869844533</v>
       </c>
       <c r="C6">
-        <v>0.7776679552998758</v>
+        <v>0.7776679552997052</v>
       </c>
       <c r="D6">
-        <v>0.1031954198605121</v>
+        <v>0.1031954198603771</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.733503082448095</v>
+        <v>1.733503082448081</v>
       </c>
       <c r="G6">
         <v>1.118995438359335</v>
@@ -585,7 +585,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.453553087674919</v>
+        <v>1.453553087674834</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -605,25 +605,25 @@
         <v>2.907323289938745</v>
       </c>
       <c r="C7">
-        <v>0.8177539163114318</v>
+        <v>0.8177539163115739</v>
       </c>
       <c r="D7">
-        <v>0.1082459503470403</v>
+        <v>0.108245950347218</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.811440761347711</v>
+        <v>1.81144076134774</v>
       </c>
       <c r="G7">
-        <v>1.165482785129157</v>
+        <v>1.165482785129186</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.538445847245711</v>
+        <v>1.538445847245697</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -640,13 +640,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.565785635828547</v>
+        <v>3.565785635828604</v>
       </c>
       <c r="C8">
-        <v>0.9974654218016497</v>
+        <v>0.9974654218015644</v>
       </c>
       <c r="D8">
-        <v>0.1310003518684795</v>
+        <v>0.1310003518686784</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -655,13 +655,13 @@
         <v>2.172323121403039</v>
       </c>
       <c r="G8">
-        <v>1.381889932525581</v>
+        <v>1.381889932525596</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.929043513564153</v>
+        <v>1.929043513564181</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.915718848418919</v>
+        <v>4.915718848418976</v>
       </c>
       <c r="C9">
-        <v>1.365707798493816</v>
+        <v>1.365707798493361</v>
       </c>
       <c r="D9">
-        <v>0.1784085844535781</v>
+        <v>0.1784085844534928</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.963713296020074</v>
+        <v>2.963713296020046</v>
       </c>
       <c r="G9">
         <v>1.86118084031996</v>
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.782601099231783</v>
+        <v>2.782601099231769</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>5.966951368616776</v>
       </c>
       <c r="C10">
-        <v>1.652976341973101</v>
+        <v>1.652976341973385</v>
       </c>
       <c r="D10">
-        <v>0.2164438758172338</v>
+        <v>0.2164438758171343</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>3.503206628675045</v>
+        <v>3.503206628675088</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -754,28 +754,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.465183369133342</v>
+        <v>6.465183369133229</v>
       </c>
       <c r="C11">
-        <v>1.789455443217264</v>
+        <v>1.789455443217093</v>
       </c>
       <c r="D11">
-        <v>0.2349536480623584</v>
+        <v>0.2349536480624295</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.950443735535259</v>
+        <v>3.950443735535316</v>
       </c>
       <c r="G11">
-        <v>2.464335562394453</v>
+        <v>2.464335562394496</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>3.864627220954404</v>
+        <v>3.864627220954432</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -792,28 +792,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.657526223427226</v>
+        <v>6.657526223427396</v>
       </c>
       <c r="C12">
-        <v>1.842217588321773</v>
+        <v>1.842217588322342</v>
       </c>
       <c r="D12">
-        <v>0.2422004235100559</v>
+        <v>0.2422004235099422</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.078650591901976</v>
+        <v>4.078650591901919</v>
       </c>
       <c r="G12">
-        <v>2.542998162716302</v>
+        <v>2.542998162716287</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>4.007956596104222</v>
+        <v>4.007956596104194</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -833,25 +833,25 @@
         <v>6.615923233552508</v>
       </c>
       <c r="C13">
-        <v>1.830801513831148</v>
+        <v>1.830801513831602</v>
       </c>
       <c r="D13">
-        <v>0.2406278419516639</v>
+        <v>0.2406278419518202</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4.050812141871972</v>
+        <v>4.050812141871944</v>
       </c>
       <c r="G13">
-        <v>2.525913183902645</v>
+        <v>2.525913183902631</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>3.976767678161238</v>
+        <v>3.976767678161281</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>6.48092854551453</v>
       </c>
       <c r="C14">
-        <v>1.79377288065939</v>
+        <v>1.793772880659503</v>
       </c>
       <c r="D14">
-        <v>0.2355446276645949</v>
+        <v>0.2355446276643676</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -883,13 +883,13 @@
         <v>3.960890996922814</v>
       </c>
       <c r="G14">
-        <v>2.470743594899389</v>
+        <v>2.470743594899375</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>3.876277845281237</v>
+        <v>3.876277845281194</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -906,10 +906,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.398746196271304</v>
+        <v>6.398746196271247</v>
       </c>
       <c r="C15">
-        <v>1.771241068984125</v>
+        <v>1.771241068984352</v>
       </c>
       <c r="D15">
         <v>0.2324642665751213</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.906454794416391</v>
+        <v>3.906454794416419</v>
       </c>
       <c r="G15">
-        <v>2.437358119663145</v>
+        <v>2.437358119663131</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>3.815625956326286</v>
+        <v>3.815625956326315</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -944,28 +944,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.934856611437851</v>
+        <v>5.934856611438022</v>
       </c>
       <c r="C16">
-        <v>1.644193279752358</v>
+        <v>1.644193279752642</v>
       </c>
       <c r="D16">
-        <v>0.2152634452804705</v>
+        <v>0.2152634452804989</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.603507693663857</v>
+        <v>3.603507693663914</v>
       </c>
       <c r="G16">
-        <v>2.251760184149674</v>
+        <v>2.25176018414966</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>3.480390033731908</v>
+        <v>3.480390033731894</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -982,13 +982,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.655903401192802</v>
+        <v>5.655903401192916</v>
       </c>
       <c r="C17">
-        <v>1.56789306201091</v>
+        <v>1.567893062010626</v>
       </c>
       <c r="D17">
-        <v>0.2050590054916483</v>
+        <v>0.2050590054915062</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>3.284334567911827</v>
+        <v>3.28433456791187</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.497283391865608</v>
+        <v>5.497283391865267</v>
       </c>
       <c r="C18">
-        <v>1.52453489184461</v>
+        <v>1.524534891844382</v>
       </c>
       <c r="D18">
-        <v>0.1992984207570032</v>
+        <v>0.1992984207568895</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1035,13 +1035,13 @@
         <v>3.324461562054665</v>
       </c>
       <c r="G18">
-        <v>2.081148248113877</v>
+        <v>2.081148248113863</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>3.174608291653385</v>
+        <v>3.174608291653371</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1073,7 +1073,7 @@
         <v>3.290845905354672</v>
       </c>
       <c r="G19">
-        <v>2.060620599138616</v>
+        <v>2.06062059913863</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.685404341463766</v>
+        <v>5.685404341463652</v>
       </c>
       <c r="C20">
-        <v>1.57595917386908</v>
+        <v>1.575959173868739</v>
       </c>
       <c r="D20">
-        <v>0.2061336426787079</v>
+        <v>0.2061336426785942</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.443630164226761</v>
+        <v>3.443630164226732</v>
       </c>
       <c r="G20">
-        <v>2.15396482422733</v>
+        <v>2.153964824227288</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1134,28 +1134,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.520472594641262</v>
+        <v>6.520472594641546</v>
       </c>
       <c r="C21">
-        <v>1.804617423432148</v>
+        <v>1.804617423432319</v>
       </c>
       <c r="D21">
-        <v>0.2370306089749761</v>
+        <v>0.2370306089750756</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.987166815401679</v>
+        <v>3.987166815401707</v>
       </c>
       <c r="G21">
-        <v>2.486861978299217</v>
+        <v>2.486861978299231</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>3.905602540422038</v>
+        <v>3.905602540422052</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1172,13 +1172,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.088203007097263</v>
+        <v>7.088203007097377</v>
       </c>
       <c r="C22">
-        <v>1.960532464337916</v>
+        <v>1.960532464337859</v>
       </c>
       <c r="D22">
-        <v>0.2586587996605658</v>
+        <v>0.2586587996606653</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>4.337173445352278</v>
+        <v>4.337173445352249</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.782857224527902</v>
+        <v>6.782857224527959</v>
       </c>
       <c r="C23">
         <v>1.876622398720826</v>
       </c>
       <c r="D23">
-        <v>0.2469556591301938</v>
+        <v>0.2469556591301796</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4.162876142854657</v>
+        <v>4.162876142854685</v>
       </c>
       <c r="G23">
         <v>2.594703113708491</v>
@@ -1231,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>4.102553511039844</v>
+        <v>4.102553511039815</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1248,28 +1248,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.672061560003613</v>
+        <v>5.672061560003669</v>
       </c>
       <c r="C24">
         <v>1.572310920408711</v>
       </c>
       <c r="D24">
-        <v>0.2056474732256675</v>
+        <v>0.2056474732257954</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.435138233377103</v>
+        <v>3.435138233377131</v>
       </c>
       <c r="G24">
-        <v>2.148773657624162</v>
+        <v>2.148773657624147</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>3.295582429347533</v>
+        <v>3.295582429347519</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1286,28 +1286,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.542087443871139</v>
+        <v>4.542087443870969</v>
       </c>
       <c r="C25">
-        <v>1.263754857316883</v>
+        <v>1.263754857316997</v>
       </c>
       <c r="D25">
-        <v>0.165154829169964</v>
+        <v>0.1651548291699356</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.738120841312877</v>
+        <v>2.738120841312963</v>
       </c>
       <c r="G25">
-        <v>1.724037408949656</v>
+        <v>1.724037408949698</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.538810866707578</v>
+        <v>2.538810866707564</v>
       </c>
       <c r="J25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_60/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_60/res_line/pl_mw.xlsx
@@ -412,13 +412,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.747444888556629</v>
+        <v>3.747444888556402</v>
       </c>
       <c r="C2">
-        <v>1.047016024958936</v>
+        <v>1.047016024959191</v>
       </c>
       <c r="D2">
-        <v>0.1373117379692133</v>
+        <v>0.1373117379693127</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -450,13 +450,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.224480742787819</v>
+        <v>3.224480742787989</v>
       </c>
       <c r="C3">
-        <v>0.9043418237833407</v>
+        <v>0.9043418237834828</v>
       </c>
       <c r="D3">
-        <v>0.1191847702813504</v>
+        <v>0.1191847702814499</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -465,7 +465,7 @@
         <v>1.983053276109715</v>
       </c>
       <c r="G3">
-        <v>1.268174841839439</v>
+        <v>1.268174841839453</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -488,28 +488,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.909045509289115</v>
+        <v>2.909045509289172</v>
       </c>
       <c r="C4">
-        <v>0.8182242893205682</v>
+        <v>0.8182242893206251</v>
       </c>
       <c r="D4">
-        <v>0.1083052621553406</v>
+        <v>0.1083052621552483</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.812361104123738</v>
+        <v>1.81236110412371</v>
       </c>
       <c r="G4">
-        <v>1.166032334502006</v>
+        <v>1.166032334501978</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.539446800007681</v>
+        <v>1.539446800007724</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -529,7 +529,7 @@
         <v>2.781672328088462</v>
       </c>
       <c r="C5">
-        <v>0.7834295372360316</v>
+        <v>0.7834295372360032</v>
       </c>
       <c r="D5">
         <v>0.1039208465906825</v>
@@ -538,7 +538,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.744644212750273</v>
+        <v>1.744644212750259</v>
       </c>
       <c r="G5">
         <v>1.125634522090138</v>
@@ -567,16 +567,16 @@
         <v>2.760585869844533</v>
       </c>
       <c r="C6">
-        <v>0.7776679552997052</v>
+        <v>0.7776679552998758</v>
       </c>
       <c r="D6">
-        <v>0.1031954198603771</v>
+        <v>0.1031954198605121</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.733503082448081</v>
+        <v>1.733503082448095</v>
       </c>
       <c r="G6">
         <v>1.118995438359335</v>
@@ -585,7 +585,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.453553087674834</v>
+        <v>1.453553087674919</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -605,25 +605,25 @@
         <v>2.907323289938745</v>
       </c>
       <c r="C7">
-        <v>0.8177539163115739</v>
+        <v>0.8177539163114318</v>
       </c>
       <c r="D7">
-        <v>0.108245950347218</v>
+        <v>0.1082459503470403</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.81144076134774</v>
+        <v>1.811440761347711</v>
       </c>
       <c r="G7">
-        <v>1.165482785129186</v>
+        <v>1.165482785129157</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.538445847245697</v>
+        <v>1.538445847245711</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -640,13 +640,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.565785635828604</v>
+        <v>3.565785635828547</v>
       </c>
       <c r="C8">
-        <v>0.9974654218015644</v>
+        <v>0.9974654218016497</v>
       </c>
       <c r="D8">
-        <v>0.1310003518686784</v>
+        <v>0.1310003518684795</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -655,13 +655,13 @@
         <v>2.172323121403039</v>
       </c>
       <c r="G8">
-        <v>1.381889932525596</v>
+        <v>1.381889932525581</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.929043513564181</v>
+        <v>1.929043513564153</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.915718848418976</v>
+        <v>4.915718848418919</v>
       </c>
       <c r="C9">
-        <v>1.365707798493361</v>
+        <v>1.365707798493816</v>
       </c>
       <c r="D9">
-        <v>0.1784085844534928</v>
+        <v>0.1784085844535781</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.963713296020046</v>
+        <v>2.963713296020074</v>
       </c>
       <c r="G9">
         <v>1.86118084031996</v>
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.782601099231769</v>
+        <v>2.782601099231783</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>5.966951368616776</v>
       </c>
       <c r="C10">
-        <v>1.652976341973385</v>
+        <v>1.652976341973101</v>
       </c>
       <c r="D10">
-        <v>0.2164438758171343</v>
+        <v>0.2164438758172338</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>3.503206628675088</v>
+        <v>3.503206628675045</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -754,28 +754,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.465183369133229</v>
+        <v>6.465183369133342</v>
       </c>
       <c r="C11">
-        <v>1.789455443217093</v>
+        <v>1.789455443217264</v>
       </c>
       <c r="D11">
-        <v>0.2349536480624295</v>
+        <v>0.2349536480623584</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.950443735535316</v>
+        <v>3.950443735535259</v>
       </c>
       <c r="G11">
-        <v>2.464335562394496</v>
+        <v>2.464335562394453</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>3.864627220954432</v>
+        <v>3.864627220954404</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -792,28 +792,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.657526223427396</v>
+        <v>6.657526223427226</v>
       </c>
       <c r="C12">
-        <v>1.842217588322342</v>
+        <v>1.842217588321773</v>
       </c>
       <c r="D12">
-        <v>0.2422004235099422</v>
+        <v>0.2422004235100559</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.078650591901919</v>
+        <v>4.078650591901976</v>
       </c>
       <c r="G12">
-        <v>2.542998162716287</v>
+        <v>2.542998162716302</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>4.007956596104194</v>
+        <v>4.007956596104222</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -833,25 +833,25 @@
         <v>6.615923233552508</v>
       </c>
       <c r="C13">
-        <v>1.830801513831602</v>
+        <v>1.830801513831148</v>
       </c>
       <c r="D13">
-        <v>0.2406278419518202</v>
+        <v>0.2406278419516639</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4.050812141871944</v>
+        <v>4.050812141871972</v>
       </c>
       <c r="G13">
-        <v>2.525913183902631</v>
+        <v>2.525913183902645</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>3.976767678161281</v>
+        <v>3.976767678161238</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>6.48092854551453</v>
       </c>
       <c r="C14">
-        <v>1.793772880659503</v>
+        <v>1.79377288065939</v>
       </c>
       <c r="D14">
-        <v>0.2355446276643676</v>
+        <v>0.2355446276645949</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -883,13 +883,13 @@
         <v>3.960890996922814</v>
       </c>
       <c r="G14">
-        <v>2.470743594899375</v>
+        <v>2.470743594899389</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>3.876277845281194</v>
+        <v>3.876277845281237</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -906,10 +906,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.398746196271247</v>
+        <v>6.398746196271304</v>
       </c>
       <c r="C15">
-        <v>1.771241068984352</v>
+        <v>1.771241068984125</v>
       </c>
       <c r="D15">
         <v>0.2324642665751213</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.906454794416419</v>
+        <v>3.906454794416391</v>
       </c>
       <c r="G15">
-        <v>2.437358119663131</v>
+        <v>2.437358119663145</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>3.815625956326315</v>
+        <v>3.815625956326286</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -944,28 +944,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.934856611438022</v>
+        <v>5.934856611437851</v>
       </c>
       <c r="C16">
-        <v>1.644193279752642</v>
+        <v>1.644193279752358</v>
       </c>
       <c r="D16">
-        <v>0.2152634452804989</v>
+        <v>0.2152634452804705</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.603507693663914</v>
+        <v>3.603507693663857</v>
       </c>
       <c r="G16">
-        <v>2.25176018414966</v>
+        <v>2.251760184149674</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>3.480390033731894</v>
+        <v>3.480390033731908</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -982,13 +982,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.655903401192916</v>
+        <v>5.655903401192802</v>
       </c>
       <c r="C17">
-        <v>1.567893062010626</v>
+        <v>1.56789306201091</v>
       </c>
       <c r="D17">
-        <v>0.2050590054915062</v>
+        <v>0.2050590054916483</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>3.28433456791187</v>
+        <v>3.284334567911827</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.497283391865267</v>
+        <v>5.497283391865608</v>
       </c>
       <c r="C18">
-        <v>1.524534891844382</v>
+        <v>1.52453489184461</v>
       </c>
       <c r="D18">
-        <v>0.1992984207568895</v>
+        <v>0.1992984207570032</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1035,13 +1035,13 @@
         <v>3.324461562054665</v>
       </c>
       <c r="G18">
-        <v>2.081148248113863</v>
+        <v>2.081148248113877</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>3.174608291653371</v>
+        <v>3.174608291653385</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1073,7 +1073,7 @@
         <v>3.290845905354672</v>
       </c>
       <c r="G19">
-        <v>2.06062059913863</v>
+        <v>2.060620599138616</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.685404341463652</v>
+        <v>5.685404341463766</v>
       </c>
       <c r="C20">
-        <v>1.575959173868739</v>
+        <v>1.57595917386908</v>
       </c>
       <c r="D20">
-        <v>0.2061336426785942</v>
+        <v>0.2061336426787079</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.443630164226732</v>
+        <v>3.443630164226761</v>
       </c>
       <c r="G20">
-        <v>2.153964824227288</v>
+        <v>2.15396482422733</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1134,28 +1134,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.520472594641546</v>
+        <v>6.520472594641262</v>
       </c>
       <c r="C21">
-        <v>1.804617423432319</v>
+        <v>1.804617423432148</v>
       </c>
       <c r="D21">
-        <v>0.2370306089750756</v>
+        <v>0.2370306089749761</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.987166815401707</v>
+        <v>3.987166815401679</v>
       </c>
       <c r="G21">
-        <v>2.486861978299231</v>
+        <v>2.486861978299217</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>3.905602540422052</v>
+        <v>3.905602540422038</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1172,13 +1172,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.088203007097377</v>
+        <v>7.088203007097263</v>
       </c>
       <c r="C22">
-        <v>1.960532464337859</v>
+        <v>1.960532464337916</v>
       </c>
       <c r="D22">
-        <v>0.2586587996606653</v>
+        <v>0.2586587996605658</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>4.337173445352249</v>
+        <v>4.337173445352278</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.782857224527959</v>
+        <v>6.782857224527902</v>
       </c>
       <c r="C23">
         <v>1.876622398720826</v>
       </c>
       <c r="D23">
-        <v>0.2469556591301796</v>
+        <v>0.2469556591301938</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4.162876142854685</v>
+        <v>4.162876142854657</v>
       </c>
       <c r="G23">
         <v>2.594703113708491</v>
@@ -1231,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>4.102553511039815</v>
+        <v>4.102553511039844</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1248,28 +1248,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.672061560003669</v>
+        <v>5.672061560003613</v>
       </c>
       <c r="C24">
         <v>1.572310920408711</v>
       </c>
       <c r="D24">
-        <v>0.2056474732257954</v>
+        <v>0.2056474732256675</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.435138233377131</v>
+        <v>3.435138233377103</v>
       </c>
       <c r="G24">
-        <v>2.148773657624147</v>
+        <v>2.148773657624162</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>3.295582429347519</v>
+        <v>3.295582429347533</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1286,28 +1286,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.542087443870969</v>
+        <v>4.542087443871139</v>
       </c>
       <c r="C25">
-        <v>1.263754857316997</v>
+        <v>1.263754857316883</v>
       </c>
       <c r="D25">
-        <v>0.1651548291699356</v>
+        <v>0.165154829169964</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.738120841312963</v>
+        <v>2.738120841312877</v>
       </c>
       <c r="G25">
-        <v>1.724037408949698</v>
+        <v>1.724037408949656</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.538810866707564</v>
+        <v>2.538810866707578</v>
       </c>
       <c r="J25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_60/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_60/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,37 +406,40 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.747444888556402</v>
+        <v>3.747149085175636</v>
       </c>
       <c r="C2">
-        <v>1.047016024959191</v>
+        <v>1.04687529448239</v>
       </c>
       <c r="D2">
-        <v>0.1373117379693127</v>
+        <v>0.1376537716771935</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.274919444478741</v>
+        <v>2.2706625384549</v>
       </c>
       <c r="G2">
-        <v>1.443704890036827</v>
+        <v>0.4718215212223384</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.971945095649545</v>
       </c>
       <c r="I2">
-        <v>2.039654372891562</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>2.03955056431964</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -444,37 +447,40 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.224480742787989</v>
+        <v>3.224290403616408</v>
       </c>
       <c r="C3">
-        <v>0.9043418237834828</v>
+        <v>0.9042463536322316</v>
       </c>
       <c r="D3">
-        <v>0.1191847702814499</v>
+        <v>0.1194799828399766</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.983053276109715</v>
+        <v>1.979353321358388</v>
       </c>
       <c r="G3">
-        <v>1.268174841839453</v>
+        <v>0.4098032752246468</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.8590487105181808</v>
       </c>
       <c r="I3">
-        <v>1.724589907095364</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1.724525980748311</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -482,37 +488,40 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.909045509289172</v>
+        <v>2.908909429280186</v>
       </c>
       <c r="C4">
-        <v>0.8182242893206251</v>
+        <v>0.8181532845165123</v>
       </c>
       <c r="D4">
-        <v>0.1083052621552483</v>
+        <v>0.1085719107566092</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.81236110412371</v>
+        <v>1.80898999401785</v>
       </c>
       <c r="G4">
-        <v>1.166032334501978</v>
+        <v>0.3735786521876037</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.7934947935921173</v>
       </c>
       <c r="I4">
-        <v>1.539446800007724</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1.539402022435937</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -520,37 +529,40 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.781672328088462</v>
+        <v>2.781556156572663</v>
       </c>
       <c r="C5">
-        <v>0.7834295372360032</v>
+        <v>0.7833678146817249</v>
       </c>
       <c r="D5">
-        <v>0.1039208465906825</v>
+        <v>0.1041758894892482</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.744644212750259</v>
+        <v>1.741404417325299</v>
       </c>
       <c r="G5">
-        <v>1.125634522090138</v>
+        <v>0.3592182388616578</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.7676028316366228</v>
       </c>
       <c r="I5">
-        <v>1.465704907196852</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.465666903441871</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -558,37 +570,40 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.760585869844533</v>
+        <v>2.760472882485146</v>
       </c>
       <c r="C6">
-        <v>0.7776679552998758</v>
+        <v>0.7776077363954244</v>
       </c>
       <c r="D6">
-        <v>0.1031954198605121</v>
+        <v>0.1034485373724223</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.733503082448095</v>
+        <v>1.730284945027549</v>
       </c>
       <c r="G6">
-        <v>1.118995438359335</v>
+        <v>0.3568562044795698</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.7633497741024797</v>
       </c>
       <c r="I6">
-        <v>1.453553087674919</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1.453516154226776</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -596,37 +611,40 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.907323289938745</v>
+        <v>2.907187486816781</v>
       </c>
       <c r="C7">
-        <v>0.8177539163114318</v>
+        <v>0.8176830392975489</v>
       </c>
       <c r="D7">
-        <v>0.1082459503470403</v>
+        <v>0.1085124423063064</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.811440761347711</v>
+        <v>1.808071432367058</v>
       </c>
       <c r="G7">
-        <v>1.165482785129157</v>
+        <v>0.3733834371493572</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.7931424316017228</v>
       </c>
       <c r="I7">
-        <v>1.538445847245711</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1.538401164839229</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -634,37 +652,40 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.565785635828547</v>
+        <v>3.56552866301746</v>
       </c>
       <c r="C8">
-        <v>0.9974654218016497</v>
+        <v>0.9973410850944617</v>
       </c>
       <c r="D8">
-        <v>0.1310003518684795</v>
+        <v>0.1313261960063272</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.172323121403039</v>
+        <v>2.168261377008065</v>
       </c>
       <c r="G8">
-        <v>1.381889932525581</v>
+        <v>0.4500107209488817</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.9321564198944543</v>
       </c>
       <c r="I8">
-        <v>1.929043513564153</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1.928954780457445</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -672,37 +693,40 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.915718848418919</v>
+        <v>4.915116139767804</v>
       </c>
       <c r="C9">
-        <v>1.365707798493816</v>
+        <v>1.365443780503199</v>
       </c>
       <c r="D9">
-        <v>0.1784085844535781</v>
+        <v>0.1788528259227462</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.963713296020074</v>
+        <v>2.958155080740426</v>
       </c>
       <c r="G9">
-        <v>1.86118084031996</v>
+        <v>0.6184798721360636</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.241331976360797</v>
       </c>
       <c r="I9">
-        <v>2.782601099231783</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>2.782363453955085</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -710,37 +734,40 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.966951368616776</v>
+        <v>5.965982302607642</v>
       </c>
       <c r="C10">
-        <v>1.652976341973101</v>
+        <v>1.65257255766943</v>
       </c>
       <c r="D10">
-        <v>0.2164438758172338</v>
+        <v>0.2169769645359736</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.624231382667631</v>
+        <v>3.617424925210884</v>
       </c>
       <c r="G10">
-        <v>2.264444822649125</v>
+        <v>0.7593757647383228</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.502341028738854</v>
       </c>
       <c r="I10">
-        <v>3.503206628675045</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>3.502777391791028</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -748,37 +775,40 @@
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.465183369133342</v>
+        <v>6.464007565126451</v>
       </c>
       <c r="C11">
-        <v>1.789455443217264</v>
+        <v>1.788974607271371</v>
       </c>
       <c r="D11">
-        <v>0.2349536480623584</v>
+        <v>0.2355275844786746</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.950443735535259</v>
+        <v>3.94301551023446</v>
       </c>
       <c r="G11">
-        <v>2.464335562394453</v>
+        <v>0.8290120293111016</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1.631924848741164</v>
       </c>
       <c r="I11">
-        <v>3.864627220954404</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>3.864074944282237</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -786,37 +816,40 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.657526223427226</v>
+        <v>6.656264403415946</v>
       </c>
       <c r="C12">
-        <v>1.842217588321773</v>
+        <v>1.84170495605224</v>
       </c>
       <c r="D12">
-        <v>0.2422004235100559</v>
+        <v>0.2427898701177895</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.078650591901976</v>
+        <v>4.070976461127827</v>
       </c>
       <c r="G12">
-        <v>2.542998162716302</v>
+        <v>0.8563849500923055</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1.682950623602963</v>
       </c>
       <c r="I12">
-        <v>4.007956596104222</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>4.007349926260872</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -824,37 +857,40 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.615923233552508</v>
+        <v>6.6146803222519</v>
       </c>
       <c r="C13">
-        <v>1.830801513831148</v>
+        <v>1.83029585980745</v>
       </c>
       <c r="D13">
-        <v>0.2406278419516639</v>
+        <v>0.2412139469715555</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4.050812141871972</v>
+        <v>4.043191491036254</v>
       </c>
       <c r="G13">
-        <v>2.525913183902645</v>
+        <v>0.8504411334548223</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1.671866788042166</v>
       </c>
       <c r="I13">
-        <v>3.976767678161238</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>3.97617312808066</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -862,37 +898,40 @@
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.48092854551453</v>
+        <v>6.479745833877189</v>
       </c>
       <c r="C14">
-        <v>1.79377288065939</v>
+        <v>1.793289486181322</v>
       </c>
       <c r="D14">
-        <v>0.2355446276645949</v>
+        <v>0.2361198395015549</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.960890996922814</v>
+        <v>3.953442769687626</v>
       </c>
       <c r="G14">
-        <v>2.470743594899389</v>
+        <v>0.831242510558269</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1.636080904552088</v>
       </c>
       <c r="I14">
-        <v>3.876277845281237</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>3.875721270384147</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -900,37 +939,40 @@
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.398746196271304</v>
+        <v>6.397599280672807</v>
       </c>
       <c r="C15">
-        <v>1.771241068984125</v>
+        <v>1.770770943255457</v>
       </c>
       <c r="D15">
-        <v>0.2324642665751213</v>
+        <v>0.2330328103698065</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.906454794416391</v>
+        <v>3.899110721833864</v>
       </c>
       <c r="G15">
-        <v>2.437358119663145</v>
+        <v>0.8196205948835029</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1.614429332663676</v>
       </c>
       <c r="I15">
-        <v>3.815625956326286</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>3.815091523498211</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -938,37 +980,40 @@
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.934856611437851</v>
+        <v>5.933900098148172</v>
       </c>
       <c r="C16">
-        <v>1.644193279752358</v>
+        <v>1.643794207413123</v>
       </c>
       <c r="D16">
-        <v>0.2152634452804705</v>
+        <v>0.2157938721217079</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.603507693663857</v>
+        <v>3.596740576641082</v>
       </c>
       <c r="G16">
-        <v>2.251760184149674</v>
+        <v>0.7549527177046116</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1.494122024198546</v>
       </c>
       <c r="I16">
-        <v>3.480390033731908</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>3.479967920239048</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -976,37 +1021,40 @@
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.655903401192802</v>
+        <v>5.655052245522768</v>
       </c>
       <c r="C17">
-        <v>1.56789306201091</v>
+        <v>1.567533719432504</v>
       </c>
       <c r="D17">
-        <v>0.2050590054916483</v>
+        <v>0.2055661532217528</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.424862585255966</v>
+        <v>3.418433972793252</v>
       </c>
       <c r="G17">
-        <v>2.142492550512586</v>
+        <v>0.7168299656553927</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1.423344284856952</v>
       </c>
       <c r="I17">
-        <v>3.284334567911827</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>3.283970681957001</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1014,37 +1062,40 @@
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.497283391865608</v>
+        <v>5.49648921314099</v>
       </c>
       <c r="C18">
-        <v>1.52453489184461</v>
+        <v>1.524197185131754</v>
       </c>
       <c r="D18">
-        <v>0.1992984207570032</v>
+        <v>0.1997922217212533</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.324461562054665</v>
+        <v>3.318222778410501</v>
       </c>
       <c r="G18">
-        <v>2.081148248113877</v>
+        <v>0.6954092936344125</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1.38362707213291</v>
       </c>
       <c r="I18">
-        <v>3.174608291653385</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>3.174274733328403</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1052,37 +1103,40 @@
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.443870272698405</v>
+        <v>5.443094811930223</v>
       </c>
       <c r="C19">
-        <v>1.509938789199225</v>
+        <v>1.509608216028312</v>
       </c>
       <c r="D19">
-        <v>0.19736507945791</v>
+        <v>0.1978543689558165</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.290845905354672</v>
+        <v>3.284670624849326</v>
       </c>
       <c r="G19">
-        <v>2.060620599138616</v>
+        <v>0.6882382364039046</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1.370339614149586</v>
       </c>
       <c r="I19">
-        <v>3.137938053031803</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>3.137614279769295</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1090,37 +1144,40 @@
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.685404341463766</v>
+        <v>5.684542357099247</v>
       </c>
       <c r="C20">
-        <v>1.57595917386908</v>
+        <v>1.575595731933333</v>
       </c>
       <c r="D20">
-        <v>0.2061336426787079</v>
+        <v>0.2066432641379663</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.443630164226761</v>
+        <v>3.437166037816667</v>
       </c>
       <c r="G20">
-        <v>2.15396482422733</v>
+        <v>0.7208344623072094</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.43077348574846</v>
       </c>
       <c r="I20">
-        <v>3.304880390408755</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>3.304510648339743</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1128,37 +1185,40 @@
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.520472594641262</v>
+        <v>6.5192724302334</v>
       </c>
       <c r="C21">
-        <v>1.804617423432148</v>
+        <v>1.804127568660533</v>
       </c>
       <c r="D21">
-        <v>0.2370306089749761</v>
+        <v>0.2376090195838714</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.987166815401679</v>
+        <v>3.979668253817294</v>
       </c>
       <c r="G21">
-        <v>2.486861978299217</v>
+        <v>0.8368524366395889</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1.64653529196211</v>
       </c>
       <c r="I21">
-        <v>3.905602540422038</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>3.905035051394833</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1166,37 +1226,40 @@
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.088203007097263</v>
+        <v>7.086735204021466</v>
       </c>
       <c r="C22">
-        <v>1.960532464337916</v>
+        <v>1.959944180445348</v>
       </c>
       <c r="D22">
-        <v>0.2586587996605658</v>
+        <v>0.2592823738328462</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.370357664142261</v>
+        <v>4.362119940660108</v>
       </c>
       <c r="G22">
-        <v>2.72215674292562</v>
+        <v>0.9186696822326752</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1.799222750364024</v>
       </c>
       <c r="I22">
-        <v>4.337173445352278</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>4.336428743251219</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1204,37 +1267,40 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.782857224527902</v>
+        <v>6.781537408122858</v>
       </c>
       <c r="C23">
-        <v>1.876622398720826</v>
+        <v>1.876088400583114</v>
       </c>
       <c r="D23">
-        <v>0.2469556591301938</v>
+        <v>0.2475551265649614</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4.162876142854657</v>
+        <v>4.155039902778668</v>
       </c>
       <c r="G23">
-        <v>2.594703113708491</v>
+        <v>0.8743683799692263</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1.716498611526902</v>
       </c>
       <c r="I23">
-        <v>4.102553511039844</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>4.101909093051319</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1242,37 +1308,40 @@
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.672061560003613</v>
+        <v>5.67120448235147</v>
       </c>
       <c r="C24">
-        <v>1.572310920408711</v>
+        <v>1.571949335499426</v>
       </c>
       <c r="D24">
-        <v>0.2056474732256675</v>
+        <v>0.2061559761966976</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.435138233377103</v>
+        <v>3.428690177529774</v>
       </c>
       <c r="G24">
-        <v>2.148773657624162</v>
+        <v>0.7190224972425483</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.42741173883509</v>
       </c>
       <c r="I24">
-        <v>3.295582429347533</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>3.295215344457233</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1280,42 +1349,48 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.542087443871139</v>
+        <v>4.541593868283883</v>
       </c>
       <c r="C25">
-        <v>1.263754857316883</v>
+        <v>1.263533732743383</v>
       </c>
       <c r="D25">
-        <v>0.165154829169964</v>
+        <v>0.1655667507382077</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.738120841312877</v>
+        <v>2.732987892170058</v>
       </c>
       <c r="G25">
-        <v>1.724037408949656</v>
+        <v>0.5704085731909743</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.15272608026595</v>
       </c>
       <c r="I25">
-        <v>2.538810866707578</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>2.53862369270658</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_60/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_60/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.747149085175636</v>
+        <v>3.357766521574717</v>
       </c>
       <c r="C2">
-        <v>1.04687529448239</v>
+        <v>0.4986881548088604</v>
       </c>
       <c r="D2">
-        <v>0.1376537716771935</v>
+        <v>0.1229641717768004</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.2706625384549</v>
+        <v>7.113291886715132</v>
       </c>
       <c r="G2">
-        <v>0.4718215212223384</v>
+        <v>0.0008380795068445579</v>
       </c>
       <c r="H2">
-        <v>0.971945095649545</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>2.03955056431964</v>
+        <v>0.1341365420826008</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1804297035462596</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.224290403616408</v>
+        <v>2.947969222203767</v>
       </c>
       <c r="C3">
-        <v>0.9042463536322316</v>
+        <v>0.4256155477960704</v>
       </c>
       <c r="D3">
-        <v>0.1194799828399766</v>
+        <v>0.1060743002343543</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.979353321358388</v>
+        <v>6.432446569184748</v>
       </c>
       <c r="G3">
-        <v>0.4098032752246468</v>
+        <v>0.0008503898425833424</v>
       </c>
       <c r="H3">
-        <v>0.8590487105181808</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>1.724525980748311</v>
+        <v>0.1278970654709717</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.164773263210634</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.908909429280186</v>
+        <v>2.704990021313563</v>
       </c>
       <c r="C4">
-        <v>0.8181532845165123</v>
+        <v>0.3819917418079228</v>
       </c>
       <c r="D4">
-        <v>0.1085719107566092</v>
+        <v>0.09596375804179047</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.80898999401785</v>
+        <v>6.02693709631194</v>
       </c>
       <c r="G4">
-        <v>0.3735786521876037</v>
+        <v>0.0008581029066349039</v>
       </c>
       <c r="H4">
-        <v>0.7934947935921173</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>1.539402022435937</v>
+        <v>0.1242017850470809</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1556548661319184</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.781556156572663</v>
+        <v>2.607886721638465</v>
       </c>
       <c r="C5">
-        <v>0.7833678146817249</v>
+        <v>0.3644793049037673</v>
       </c>
       <c r="D5">
-        <v>0.1041758894892482</v>
+        <v>0.09189814889684556</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.741404417325299</v>
+        <v>5.864420858754102</v>
       </c>
       <c r="G5">
-        <v>0.3592182388616578</v>
+        <v>0.0008612886121139116</v>
       </c>
       <c r="H5">
-        <v>0.7676028316366228</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1.465666903441871</v>
+        <v>0.1227256549841798</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1520520323923478</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.760472882485146</v>
+        <v>2.591871276171048</v>
       </c>
       <c r="C6">
-        <v>0.7776077363954244</v>
+        <v>0.3615860621795832</v>
       </c>
       <c r="D6">
-        <v>0.1034485373724223</v>
+        <v>0.09122605544409623</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.730284945027549</v>
+        <v>5.837588760978775</v>
       </c>
       <c r="G6">
-        <v>0.3568562044795698</v>
+        <v>0.0008618202689228648</v>
       </c>
       <c r="H6">
-        <v>0.7633497741024797</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>1.453516154226776</v>
+        <v>0.1224822198903226</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1514602991929124</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.907187486816781</v>
+        <v>2.703673029649224</v>
       </c>
       <c r="C7">
-        <v>0.8176830392975489</v>
+        <v>0.3817545509132856</v>
       </c>
       <c r="D7">
-        <v>0.1085124423063064</v>
+        <v>0.09590872055065347</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.808071432367058</v>
+        <v>6.024734804766638</v>
       </c>
       <c r="G7">
-        <v>0.3733834371493572</v>
+        <v>0.0008581456930161034</v>
       </c>
       <c r="H7">
-        <v>0.7931424316017228</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1.538401164839229</v>
+        <v>0.1241817625735422</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1556058337296307</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.56552866301746</v>
+        <v>3.214509837704213</v>
       </c>
       <c r="C8">
-        <v>0.9973410850944617</v>
+        <v>0.4732040135439775</v>
       </c>
       <c r="D8">
-        <v>0.1313261960063272</v>
+        <v>0.117079691378251</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.168261377008065</v>
+        <v>6.87566822259015</v>
       </c>
       <c r="G8">
-        <v>0.4500107209488817</v>
+        <v>0.0008422944232871813</v>
       </c>
       <c r="H8">
-        <v>0.9321564198944543</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>1.928954780457445</v>
+        <v>0.1319541729764566</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1749213868570365</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.915116139767804</v>
+        <v>4.298326176609862</v>
       </c>
       <c r="C9">
-        <v>1.365443780503199</v>
+        <v>0.6649127837236506</v>
       </c>
       <c r="D9">
-        <v>0.1788528259227462</v>
+        <v>0.1612201158089874</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.958155080740426</v>
+        <v>8.665495471190269</v>
       </c>
       <c r="G9">
-        <v>0.6184798721360636</v>
+        <v>0.0008122431595910776</v>
       </c>
       <c r="H9">
-        <v>1.241331976360797</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>2.782363453955085</v>
+        <v>0.14850219672946</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2173202775678647</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.965982302607642</v>
+        <v>5.166968017913746</v>
       </c>
       <c r="C10">
-        <v>1.65257255766943</v>
+        <v>0.8174816646850047</v>
       </c>
       <c r="D10">
-        <v>0.2169769645359736</v>
+        <v>0.1961727269015086</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.617424925210884</v>
+        <v>10.08991292689711</v>
       </c>
       <c r="G10">
-        <v>0.7593757647383228</v>
+        <v>0.0007904792821152114</v>
       </c>
       <c r="H10">
-        <v>1.502341028738854</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>3.502777391791028</v>
+        <v>0.161832206544986</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2522107736837427</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.464007565126451</v>
+        <v>5.584086690550521</v>
       </c>
       <c r="C11">
-        <v>1.788974607271371</v>
+        <v>0.8906112753451794</v>
       </c>
       <c r="D11">
-        <v>0.2355275844786746</v>
+        <v>0.2128778620160148</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.94301551023446</v>
+        <v>10.77152889691666</v>
       </c>
       <c r="G11">
-        <v>0.8290120293111016</v>
+        <v>0.0007805596760591992</v>
       </c>
       <c r="H11">
-        <v>1.631924848741164</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>3.864074944282237</v>
+        <v>0.1682552634362438</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2691702655421864</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.656264403415946</v>
+        <v>5.745846103275824</v>
       </c>
       <c r="C12">
-        <v>1.84170495605224</v>
+        <v>0.918962593527425</v>
       </c>
       <c r="D12">
-        <v>0.2427898701177895</v>
+        <v>0.2193460079478058</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.070976461127827</v>
+        <v>11.03549327684829</v>
       </c>
       <c r="G12">
-        <v>0.8563849500923055</v>
+        <v>0.0007767916677224073</v>
       </c>
       <c r="H12">
-        <v>1.682950623602963</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4.007349926260872</v>
+        <v>0.1707499627716942</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2757773226926901</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.6146803222519</v>
+        <v>5.710827350433078</v>
       </c>
       <c r="C13">
-        <v>1.83029585980745</v>
+        <v>0.9128250944363572</v>
       </c>
       <c r="D13">
-        <v>0.2412139469715555</v>
+        <v>0.2179461695562281</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4.043191491036254</v>
+        <v>10.97836528845926</v>
       </c>
       <c r="G13">
-        <v>0.8504411334548223</v>
+        <v>0.0007776038560165568</v>
       </c>
       <c r="H13">
-        <v>1.671866788042166</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>3.97617312808066</v>
+        <v>0.1702097132355433</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.2743456373596587</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.479745833877189</v>
+        <v>5.597314293230568</v>
       </c>
       <c r="C14">
-        <v>1.793289486181322</v>
+        <v>0.8929297566497212</v>
       </c>
       <c r="D14">
-        <v>0.2361198395015549</v>
+        <v>0.2134069780279475</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.953442769687626</v>
+        <v>10.793121618947</v>
       </c>
       <c r="G14">
-        <v>0.831242510558269</v>
+        <v>0.0007802499707321693</v>
       </c>
       <c r="H14">
-        <v>1.636080904552088</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>3.875721270384147</v>
+        <v>0.1684591832909064</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2697099435697368</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.397599280672807</v>
+        <v>5.528301279014215</v>
       </c>
       <c r="C15">
-        <v>1.770770943255457</v>
+        <v>0.8808331613275016</v>
       </c>
       <c r="D15">
-        <v>0.2330328103698065</v>
+        <v>0.210645997359066</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.899110721833864</v>
+        <v>10.68044998846744</v>
       </c>
       <c r="G15">
-        <v>0.8196205948835029</v>
+        <v>0.0007818689783648013</v>
       </c>
       <c r="H15">
-        <v>1.614429332663676</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>3.815091523498211</v>
+        <v>0.1673954193579377</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.2668954642976757</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.933900098148172</v>
+        <v>5.140202811853726</v>
       </c>
       <c r="C16">
-        <v>1.643794207413123</v>
+        <v>0.8127873891959609</v>
       </c>
       <c r="D16">
-        <v>0.2157938721217079</v>
+        <v>0.1950993564650503</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.596740576641082</v>
+        <v>10.04612695768776</v>
       </c>
       <c r="G16">
-        <v>0.7549527177046116</v>
+        <v>0.0007911264431160099</v>
       </c>
       <c r="H16">
-        <v>1.494122024198546</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>3.479967920239048</v>
+        <v>0.1614205465448606</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2511266249544235</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.655052245522768</v>
+        <v>4.908165279528987</v>
       </c>
       <c r="C17">
-        <v>1.567533719432504</v>
+        <v>0.7720776097807516</v>
       </c>
       <c r="D17">
-        <v>0.2055661532217528</v>
+        <v>0.1857854823173568</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.418433972793252</v>
+        <v>9.6662691504159</v>
       </c>
       <c r="G17">
-        <v>0.7168299656553927</v>
+        <v>0.0007967948741285611</v>
       </c>
       <c r="H17">
-        <v>1.423344284856952</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>3.283970681957001</v>
+        <v>0.1578541844597439</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2417500869108977</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.49648921314099</v>
+        <v>4.776725955605741</v>
       </c>
       <c r="C18">
-        <v>1.524197185131754</v>
+        <v>0.7490043991753339</v>
       </c>
       <c r="D18">
-        <v>0.1997922217212533</v>
+        <v>0.1805023050054473</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.318222778410501</v>
+        <v>9.450880691502647</v>
       </c>
       <c r="G18">
-        <v>0.6954092936344125</v>
+        <v>0.0008000540299767171</v>
       </c>
       <c r="H18">
-        <v>1.38362707213291</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>3.174274733328403</v>
+        <v>0.1558359601240085</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2364573289113707</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.443094811930223</v>
+        <v>4.73255253706634</v>
       </c>
       <c r="C19">
-        <v>1.509608216028312</v>
+        <v>0.7412475871205402</v>
       </c>
       <c r="D19">
-        <v>0.1978543689558165</v>
+        <v>0.1787254807373699</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.284670624849326</v>
+        <v>9.378457724442484</v>
       </c>
       <c r="G19">
-        <v>0.6882382364039046</v>
+        <v>0.0008011575669244661</v>
       </c>
       <c r="H19">
-        <v>1.370339614149586</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>3.137614279769295</v>
+        <v>0.1551580053899002</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2346817526892266</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.684542357099247</v>
+        <v>4.932652464352316</v>
       </c>
       <c r="C20">
-        <v>1.575595731933333</v>
+        <v>0.7763750294373608</v>
       </c>
       <c r="D20">
-        <v>0.2066432641379663</v>
+        <v>0.1867691342057896</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.437166037816667</v>
+        <v>9.706378536753675</v>
       </c>
       <c r="G20">
-        <v>0.7208344623072094</v>
+        <v>0.0007961916408893747</v>
       </c>
       <c r="H20">
-        <v>1.43077348574846</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>3.304510648339743</v>
+        <v>0.1582303374445431</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2427376579247209</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.5192724302334</v>
+        <v>5.630546741133116</v>
       </c>
       <c r="C21">
-        <v>1.804127568660533</v>
+        <v>0.8987545129976411</v>
       </c>
       <c r="D21">
-        <v>0.2376090195838714</v>
+        <v>0.2147361495441089</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.979668253817294</v>
+        <v>10.84736430186626</v>
       </c>
       <c r="G21">
-        <v>0.8368524366395889</v>
+        <v>0.0007794731394354513</v>
       </c>
       <c r="H21">
-        <v>1.64653529196211</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>3.905035051394833</v>
+        <v>0.168971565491006</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2710662865483897</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.086735204021466</v>
+        <v>6.109244726939892</v>
       </c>
       <c r="C22">
-        <v>1.959944180445348</v>
+        <v>0.9826532647900876</v>
       </c>
       <c r="D22">
-        <v>0.2592823738328462</v>
+        <v>0.2338599216575972</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.362119940660108</v>
+        <v>11.62779491677645</v>
       </c>
       <c r="G22">
-        <v>0.9186696822326752</v>
+        <v>0.0007684731118454409</v>
       </c>
       <c r="H22">
-        <v>1.799222750364024</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4.336428743251219</v>
+        <v>0.1763621227417431</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2906758802082408</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.781537408122858</v>
+        <v>5.851438551467766</v>
       </c>
       <c r="C23">
-        <v>1.876088400583114</v>
+        <v>0.9374687874992276</v>
       </c>
       <c r="D23">
-        <v>0.2475551265649614</v>
+        <v>0.2235655989063474</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4.155039902778668</v>
+        <v>11.20769677111969</v>
       </c>
       <c r="G23">
-        <v>0.8743683799692263</v>
+        <v>0.0007743541928848127</v>
       </c>
       <c r="H23">
-        <v>1.716498611526902</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>4.101909093051319</v>
+        <v>0.1723795852950332</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2800986773706313</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.67120448235147</v>
+        <v>4.921575743513699</v>
       </c>
       <c r="C24">
-        <v>1.571949335499426</v>
+        <v>0.7744311427675825</v>
       </c>
       <c r="D24">
-        <v>0.2061559761966976</v>
+        <v>0.1863242044328217</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.428690177529774</v>
+        <v>9.688235822531055</v>
       </c>
       <c r="G24">
-        <v>0.7190224972425483</v>
+        <v>0.0007964643611293197</v>
       </c>
       <c r="H24">
-        <v>1.42741173883509</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>3.295215344457233</v>
+        <v>0.1580601794042593</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2422908740848442</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.541593868283883</v>
+        <v>3.994252377145074</v>
       </c>
       <c r="C25">
-        <v>1.263533732743383</v>
+        <v>0.6113367521811313</v>
       </c>
       <c r="D25">
-        <v>0.1655667507382077</v>
+        <v>0.1489115810830697</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.732987892170058</v>
+        <v>8.164992534920771</v>
       </c>
       <c r="G25">
-        <v>0.5704085731909743</v>
+        <v>0.0008202918146801506</v>
       </c>
       <c r="H25">
-        <v>1.15272608026595</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>2.53862369270658</v>
+        <v>0.1438504535889251</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2052743041561911</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_60/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_60/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.357766521574717</v>
+        <v>1.232837444240886</v>
       </c>
       <c r="C2">
-        <v>0.4986881548088604</v>
+        <v>0.1812898425357616</v>
       </c>
       <c r="D2">
-        <v>0.1229641717768004</v>
+        <v>0.05046945457872454</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>7.113291886715132</v>
+        <v>1.021211338682662</v>
       </c>
       <c r="G2">
-        <v>0.0008380795068445579</v>
+        <v>0.000817601530494337</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1341365420826008</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.318721743854042</v>
       </c>
       <c r="L2">
-        <v>0.1804297035462596</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.051200825919118</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.947969222203767</v>
+        <v>1.070859105185605</v>
       </c>
       <c r="C3">
-        <v>0.4256155477960704</v>
+        <v>0.1566888615210615</v>
       </c>
       <c r="D3">
-        <v>0.1060743002343543</v>
+        <v>0.05024835299721531</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>6.432446569184748</v>
+        <v>0.9635532886539266</v>
       </c>
       <c r="G3">
-        <v>0.0008503898425833424</v>
+        <v>0.0008231800018797881</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1278970654709717</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.14309975468413</v>
       </c>
       <c r="L3">
-        <v>0.164773263210634</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1.100858563027224</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.704990021313563</v>
+        <v>0.972504892792017</v>
       </c>
       <c r="C4">
-        <v>0.3819917418079228</v>
+        <v>0.141722288767923</v>
       </c>
       <c r="D4">
-        <v>0.09596375804179047</v>
+        <v>0.05011445603619791</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>6.02693709631194</v>
+        <v>0.9302292063604654</v>
       </c>
       <c r="G4">
-        <v>0.0008581029066349039</v>
+        <v>0.0008267092113710346</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1242017850470809</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1.036409900173709</v>
       </c>
       <c r="L4">
-        <v>0.1556548661319184</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1.132961594381676</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.607886721638465</v>
+        <v>0.9326676779971876</v>
       </c>
       <c r="C5">
-        <v>0.3644793049037673</v>
+        <v>0.1356525463540521</v>
       </c>
       <c r="D5">
-        <v>0.09189814889684556</v>
+        <v>0.0500603728433866</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>5.864420858754102</v>
+        <v>0.9171373682039032</v>
       </c>
       <c r="G5">
-        <v>0.0008612886121139116</v>
+        <v>0.0008281742340758261</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1227256549841798</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.9931828885263485</v>
       </c>
       <c r="L5">
-        <v>0.1520520323923478</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1.14643565490405</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.591871276171048</v>
+        <v>0.926066458343513</v>
       </c>
       <c r="C6">
-        <v>0.3615860621795832</v>
+        <v>0.1346462813201441</v>
       </c>
       <c r="D6">
-        <v>0.09122605544409623</v>
+        <v>0.05005142194779566</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>5.837588760978775</v>
+        <v>0.9149919811809539</v>
       </c>
       <c r="G6">
-        <v>0.0008618202689228648</v>
+        <v>0.0008284191405239188</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1224822198903226</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.9860191258277951</v>
       </c>
       <c r="L6">
-        <v>0.1514602991929124</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1.148696290518203</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.703673029649224</v>
+        <v>0.9719666939333251</v>
       </c>
       <c r="C7">
-        <v>0.3817545509132856</v>
+        <v>0.1416403187390074</v>
       </c>
       <c r="D7">
-        <v>0.09590872055065347</v>
+        <v>0.05011372468138475</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>6.024734804766638</v>
+        <v>0.9300507135388898</v>
       </c>
       <c r="G7">
-        <v>0.0008581456930161034</v>
+        <v>0.0008267288596770421</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1241817625735422</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1.03582596114785</v>
       </c>
       <c r="L7">
-        <v>0.1556058337296307</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1.13314174140298</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.214509837704213</v>
+        <v>1.17673760773738</v>
       </c>
       <c r="C8">
-        <v>0.4732040135439775</v>
+        <v>0.172775191669686</v>
       </c>
       <c r="D8">
-        <v>0.117079691378251</v>
+        <v>0.05039283794381788</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>6.87566822259015</v>
+        <v>1.00087801018033</v>
       </c>
       <c r="G8">
-        <v>0.0008422944232871813</v>
+        <v>0.0008195038279205386</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1319541729764566</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.257906800863395</v>
       </c>
       <c r="L8">
-        <v>0.1749213868570365</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1.067979477825077</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.298326176609862</v>
+        <v>1.588694048439322</v>
       </c>
       <c r="C9">
-        <v>0.6649127837236506</v>
+        <v>0.2352040337400325</v>
       </c>
       <c r="D9">
-        <v>0.1612201158089874</v>
+        <v>0.05095485389610488</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.665495471190269</v>
+        <v>1.157940353321251</v>
       </c>
       <c r="G9">
-        <v>0.0008122431595910776</v>
+        <v>0.0008061274642257714</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.14850219672946</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.704307085802071</v>
       </c>
       <c r="L9">
-        <v>0.2173202775678647</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.9536592593192239</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.166968017913746</v>
+        <v>1.900228032346007</v>
       </c>
       <c r="C10">
-        <v>0.8174816646850047</v>
+        <v>0.282326592311307</v>
       </c>
       <c r="D10">
-        <v>0.1961727269015086</v>
+        <v>0.05137744371418052</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>10.08991292689711</v>
+        <v>1.286947356826502</v>
       </c>
       <c r="G10">
-        <v>0.0007904792821152114</v>
+        <v>0.0007967325253138045</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.161832206544986</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>2.041710724563444</v>
       </c>
       <c r="L10">
-        <v>0.2522107736837427</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.8788718790712196</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.584086690550521</v>
+        <v>2.044499143876976</v>
       </c>
       <c r="C11">
-        <v>0.8906112753451794</v>
+        <v>0.3041402013118955</v>
       </c>
       <c r="D11">
-        <v>0.2128778620160148</v>
+        <v>0.05157221718780036</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>10.77152889691666</v>
+        <v>1.349213591606841</v>
       </c>
       <c r="G11">
-        <v>0.0007805596760591992</v>
+        <v>0.0007925403468922454</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1682552634362438</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>2.197937859908222</v>
       </c>
       <c r="L11">
-        <v>0.2691702655421864</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.8470928672844522</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.745846103275824</v>
+        <v>2.099554509373434</v>
       </c>
       <c r="C12">
-        <v>0.918962593527425</v>
+        <v>0.3124642377317173</v>
       </c>
       <c r="D12">
-        <v>0.2193460079478058</v>
+        <v>0.05164639277921523</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>11.03549327684829</v>
+        <v>1.373364173252114</v>
       </c>
       <c r="G12">
-        <v>0.0007767916677224073</v>
+        <v>0.0007909635215224161</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1707499627716942</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>2.257553694428452</v>
       </c>
       <c r="L12">
-        <v>0.2757773226926901</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.835404316338284</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.710827350433078</v>
+        <v>2.087677589956172</v>
       </c>
       <c r="C13">
-        <v>0.9128250944363572</v>
+        <v>0.3106685142493575</v>
       </c>
       <c r="D13">
-        <v>0.2179461695562281</v>
+        <v>0.05163039803267466</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>10.97836528845926</v>
+        <v>1.368136523740006</v>
       </c>
       <c r="G13">
-        <v>0.0007776038560165568</v>
+        <v>0.0007913026630723927</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1702097132355433</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>2.244693027441002</v>
       </c>
       <c r="L13">
-        <v>0.2743456373596587</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.8379058992304707</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.597314293230568</v>
+        <v>2.049019764694947</v>
       </c>
       <c r="C14">
-        <v>0.8929297566497212</v>
+        <v>0.3048236908146293</v>
       </c>
       <c r="D14">
-        <v>0.2134069780279475</v>
+        <v>0.05157831088069997</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>10.793121618947</v>
+        <v>1.351188671861152</v>
       </c>
       <c r="G14">
-        <v>0.0007802499707321693</v>
+        <v>0.0007924104134131657</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1684591832909064</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>2.202832975717826</v>
       </c>
       <c r="L14">
-        <v>0.2697099435697368</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.8461241794947512</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.528301279014215</v>
+        <v>2.025397570624079</v>
       </c>
       <c r="C15">
-        <v>0.8808331613275016</v>
+        <v>0.3012521589223809</v>
       </c>
       <c r="D15">
-        <v>0.210645997359066</v>
+        <v>0.05154646250927186</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>10.68044998846744</v>
+        <v>1.340883855028409</v>
       </c>
       <c r="G15">
-        <v>0.0007818689783648013</v>
+        <v>0.0007930902972975717</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1673954193579377</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>2.177253809046192</v>
       </c>
       <c r="L15">
-        <v>0.2668954642976757</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.8512038257405763</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.140202811853726</v>
+        <v>1.890855608951654</v>
       </c>
       <c r="C16">
-        <v>0.8127873891959609</v>
+        <v>0.2809094000969878</v>
       </c>
       <c r="D16">
-        <v>0.1950993564650503</v>
+        <v>0.05136477007810569</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>10.04612695768776</v>
+        <v>1.282954899160956</v>
       </c>
       <c r="G16">
-        <v>0.0007911264431160099</v>
+        <v>0.000797008046683146</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1614205465448606</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>2.031561222495753</v>
       </c>
       <c r="L16">
-        <v>0.2511266249544235</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.8809957514021605</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.908165279528987</v>
+        <v>1.809010497411208</v>
       </c>
       <c r="C17">
-        <v>0.7720776097807516</v>
+        <v>0.2685328456078651</v>
       </c>
       <c r="D17">
-        <v>0.1857854823173568</v>
+        <v>0.05125399021488874</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>9.6662691504159</v>
+        <v>1.248373200602032</v>
       </c>
       <c r="G17">
-        <v>0.0007967948741285611</v>
+        <v>0.0007994316284903949</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1578541844597439</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.942927720172662</v>
       </c>
       <c r="L17">
-        <v>0.2417500869108977</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.899862130414391</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.776725955605741</v>
+        <v>1.762171987957117</v>
       </c>
       <c r="C18">
-        <v>0.7490043991753339</v>
+        <v>0.2614490766502939</v>
       </c>
       <c r="D18">
-        <v>0.1805023050054473</v>
+        <v>0.05119050690800009</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>9.450880691502647</v>
+        <v>1.22881601632524</v>
       </c>
       <c r="G18">
-        <v>0.0008000540299767171</v>
+        <v>0.0008008333614672105</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1558359601240085</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.892201990058453</v>
       </c>
       <c r="L18">
-        <v>0.2364573289113707</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.9109231108697813</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.73255253706634</v>
+        <v>1.746352293937065</v>
       </c>
       <c r="C19">
-        <v>0.7412475871205402</v>
+        <v>0.259056355256547</v>
       </c>
       <c r="D19">
-        <v>0.1787254807373699</v>
+        <v>0.0511690514277916</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9.378457724442484</v>
+        <v>1.222249884869328</v>
       </c>
       <c r="G19">
-        <v>0.0008011575669244661</v>
+        <v>0.0008013093269760679</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1551580053899002</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.8750689460731</v>
       </c>
       <c r="L19">
-        <v>0.2346817526892266</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.9147034896307673</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.932652464352316</v>
+        <v>1.817698169646462</v>
       </c>
       <c r="C20">
-        <v>0.7763750294373608</v>
+        <v>0.2698466737398064</v>
       </c>
       <c r="D20">
-        <v>0.1867691342057896</v>
+        <v>0.05126575832927571</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>9.706378536753675</v>
+        <v>1.252019591463039</v>
       </c>
       <c r="G20">
-        <v>0.0007961916408893747</v>
+        <v>0.000799172839168391</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1582303374445431</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.952336198241198</v>
       </c>
       <c r="L20">
-        <v>0.2427376579247209</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.8978319256350389</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.630546741133116</v>
+        <v>2.060362552292361</v>
       </c>
       <c r="C21">
-        <v>0.8987545129976411</v>
+        <v>0.3065386485445458</v>
       </c>
       <c r="D21">
-        <v>0.2147361495441089</v>
+        <v>0.05159359823949927</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>10.84736430186626</v>
+        <v>1.356150671058487</v>
       </c>
       <c r="G21">
-        <v>0.0007794731394354513</v>
+        <v>0.0007920847599166145</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.168971565491006</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>2.215115388893111</v>
       </c>
       <c r="L21">
-        <v>0.2710662865483897</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.8437007006879824</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.109244726939892</v>
+        <v>2.221453324659592</v>
       </c>
       <c r="C22">
-        <v>0.9826532647900876</v>
+        <v>0.3308953237382752</v>
       </c>
       <c r="D22">
-        <v>0.2338599216575972</v>
+        <v>0.05181034246122707</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>11.62779491677645</v>
+        <v>1.42756905137874</v>
       </c>
       <c r="G22">
-        <v>0.0007684731118454409</v>
+        <v>0.0007875138643077539</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1763621227417431</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>2.389547847185355</v>
       </c>
       <c r="L22">
-        <v>0.2906758802082408</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.8103488197145978</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.851438551467766</v>
+        <v>2.135227919942963</v>
       </c>
       <c r="C23">
-        <v>0.9374687874992276</v>
+        <v>0.3178579021196981</v>
       </c>
       <c r="D23">
-        <v>0.2235655989063474</v>
+        <v>0.05169441195180724</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>11.20769677111969</v>
+        <v>1.389123821009122</v>
       </c>
       <c r="G23">
-        <v>0.0007743541928848127</v>
+        <v>0.0007899481841746131</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1723795852950332</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>2.296181699392633</v>
       </c>
       <c r="L23">
-        <v>0.2800986773706313</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.8279557614229844</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.921575743513699</v>
+        <v>1.813769806472123</v>
       </c>
       <c r="C24">
-        <v>0.7744311427675825</v>
+        <v>0.2692525940760504</v>
       </c>
       <c r="D24">
-        <v>0.1863242044328217</v>
+        <v>0.05126043732874663</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>9.688235822531055</v>
+        <v>1.250370052282861</v>
       </c>
       <c r="G24">
-        <v>0.0007964643611293197</v>
+        <v>0.0007992898116885079</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1580601794042593</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.948081910865881</v>
       </c>
       <c r="L24">
-        <v>0.2422908740848442</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.8987491149750966</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.994252377145074</v>
+        <v>1.475886870783313</v>
       </c>
       <c r="C25">
-        <v>0.6113367521811313</v>
+        <v>0.2181273188330977</v>
       </c>
       <c r="D25">
-        <v>0.1489115810830697</v>
+        <v>0.05080121056268538</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>8.164992534920771</v>
+        <v>1.113256354306372</v>
       </c>
       <c r="G25">
-        <v>0.0008202918146801506</v>
+        <v>0.0008096662948036169</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1438504535889251</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.582103187851317</v>
       </c>
       <c r="L25">
-        <v>0.2052743041561911</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.9830469693134063</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_60/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_60/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.232837444240886</v>
+        <v>0.6109724624622288</v>
       </c>
       <c r="C2">
-        <v>0.1812898425357616</v>
+        <v>0.05997153799206956</v>
       </c>
       <c r="D2">
-        <v>0.05046945457872454</v>
+        <v>0.05856964968633349</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.021211338682662</v>
+        <v>1.349328526400285</v>
       </c>
       <c r="G2">
-        <v>0.000817601530494337</v>
+        <v>0.002489829265264314</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.318721743854042</v>
+        <v>0.5938401813831149</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.051200825919118</v>
+        <v>1.963158319943183</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.070859105185605</v>
+        <v>0.568226392564668</v>
       </c>
       <c r="C3">
-        <v>0.1566888615210615</v>
+        <v>0.05307900734466386</v>
       </c>
       <c r="D3">
-        <v>0.05024835299721531</v>
+        <v>0.05824567024120952</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9635532886539266</v>
+        <v>1.342611000863641</v>
       </c>
       <c r="G3">
-        <v>0.0008231800018797881</v>
+        <v>0.002493334951751594</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.14309975468413</v>
+        <v>0.5468139539168817</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.100858563027224</v>
+        <v>1.982660104844271</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.972504892792017</v>
+        <v>0.5422921543181189</v>
       </c>
       <c r="C4">
-        <v>0.141722288767923</v>
+        <v>0.0488611280244271</v>
       </c>
       <c r="D4">
-        <v>0.05011445603619791</v>
+        <v>0.05804512657321226</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9302292063604654</v>
+        <v>1.339284429731222</v>
       </c>
       <c r="G4">
-        <v>0.0008267092113710346</v>
+        <v>0.002495601496713444</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.036409900173709</v>
+        <v>0.5182233303110877</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.132961594381676</v>
+        <v>1.995314520940575</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9326676779971876</v>
+        <v>0.5318022431780207</v>
       </c>
       <c r="C5">
-        <v>0.1356525463540521</v>
+        <v>0.04714583641532499</v>
       </c>
       <c r="D5">
-        <v>0.0500603728433866</v>
+        <v>0.05796300782772335</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9171373682039032</v>
+        <v>1.338129170954666</v>
       </c>
       <c r="G5">
-        <v>0.0008281742340758261</v>
+        <v>0.002496553897392021</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.9931828885263485</v>
+        <v>0.5066437329278415</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.14643565490405</v>
+        <v>2.000642163209513</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.926066458343513</v>
+        <v>0.5300651440662136</v>
       </c>
       <c r="C6">
-        <v>0.1346462813201441</v>
+        <v>0.04686122572331897</v>
       </c>
       <c r="D6">
-        <v>0.05005142194779566</v>
+        <v>0.05794934852337263</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9149919811809539</v>
+        <v>1.337949432168131</v>
       </c>
       <c r="G6">
-        <v>0.0008284191405239188</v>
+        <v>0.002496713782854378</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.9860191258277951</v>
+        <v>0.5047252564274345</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.148696290518203</v>
+        <v>2.001537128541678</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9719666939333251</v>
+        <v>0.5421503658014046</v>
       </c>
       <c r="C7">
-        <v>0.1416403187390074</v>
+        <v>0.04883798075672985</v>
       </c>
       <c r="D7">
-        <v>0.05011372468138475</v>
+        <v>0.05804402067745329</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9300507135388898</v>
+        <v>1.339268038744152</v>
       </c>
       <c r="G7">
-        <v>0.0008267288596770421</v>
+        <v>0.002495614224425003</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.03582596114785</v>
+        <v>0.5180668750837185</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.13314174140298</v>
+        <v>1.99538567981698</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.17673760773738</v>
+        <v>0.5961688668097054</v>
       </c>
       <c r="C8">
-        <v>0.172775191669686</v>
+        <v>0.05759203205712993</v>
       </c>
       <c r="D8">
-        <v>0.05039283794381788</v>
+        <v>0.05845828435034761</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.00087801018033</v>
+        <v>1.346846495239447</v>
       </c>
       <c r="G8">
-        <v>0.0008195038279205386</v>
+        <v>0.002491014410929775</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.257906800863395</v>
+        <v>0.5775666354073223</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.067979477825077</v>
+        <v>1.96974124014136</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.588694048439322</v>
+        <v>0.7045791812280413</v>
       </c>
       <c r="C9">
-        <v>0.2352040337400325</v>
+        <v>0.074873448051477</v>
       </c>
       <c r="D9">
-        <v>0.05095485389610488</v>
+        <v>0.05925734663540183</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.157940353321251</v>
+        <v>1.368056930979037</v>
       </c>
       <c r="G9">
-        <v>0.0008061274642257714</v>
+        <v>0.002482894958900579</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.704307085802071</v>
+        <v>0.6965037981217108</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9536592593192239</v>
+        <v>1.924857722016625</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.900228032346007</v>
+        <v>0.7857554829511173</v>
       </c>
       <c r="C10">
-        <v>0.282326592311307</v>
+        <v>0.08764464024568497</v>
       </c>
       <c r="D10">
-        <v>0.05137744371418052</v>
+        <v>0.05983575069961589</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.286947356826502</v>
+        <v>1.387538509164017</v>
       </c>
       <c r="G10">
-        <v>0.0007967325253138045</v>
+        <v>0.002477473003175391</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.041710724563444</v>
+        <v>0.7852837813742326</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.8788718790712196</v>
+        <v>1.8951866288483</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.044499143876976</v>
+        <v>0.8230201785676741</v>
       </c>
       <c r="C11">
-        <v>0.3041402013118955</v>
+        <v>0.0934718400876875</v>
       </c>
       <c r="D11">
-        <v>0.05157221718780036</v>
+        <v>0.06009688977066929</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.349213591606841</v>
+        <v>1.39725390089778</v>
       </c>
       <c r="G11">
-        <v>0.0007925403468922454</v>
+        <v>0.002475123190476948</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.197937859908222</v>
+        <v>0.8259803615659393</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.8470928672844522</v>
+        <v>1.882408208735839</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.099554509373434</v>
+        <v>0.837179954690555</v>
       </c>
       <c r="C12">
-        <v>0.3124642377317173</v>
+        <v>0.09568102677783941</v>
       </c>
       <c r="D12">
-        <v>0.05164639277921523</v>
+        <v>0.06019548163601129</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.373364173252114</v>
+        <v>1.401055981142505</v>
       </c>
       <c r="G12">
-        <v>0.0007909635215224161</v>
+        <v>0.002474250061281305</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.257553694428452</v>
+        <v>0.8414358842540537</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.835404316338284</v>
+        <v>1.877672978657678</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.087677589956172</v>
+        <v>0.8341282396152678</v>
       </c>
       <c r="C13">
-        <v>0.3106685142493575</v>
+        <v>0.09520512483686616</v>
       </c>
       <c r="D13">
-        <v>0.05163039803267466</v>
+        <v>0.06017426144561355</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.368136523740006</v>
+        <v>1.400231655159971</v>
       </c>
       <c r="G13">
-        <v>0.0007913026630723927</v>
+        <v>0.002474437364105099</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.244693027441002</v>
+        <v>0.8381052765362824</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.8379058992304707</v>
+        <v>1.878688179572862</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.049019764694947</v>
+        <v>0.8241841412039435</v>
       </c>
       <c r="C14">
-        <v>0.3048236908146293</v>
+        <v>0.09365353985646152</v>
       </c>
       <c r="D14">
-        <v>0.05157831088069997</v>
+        <v>0.06010500697504639</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.351188671861152</v>
+        <v>1.39756423151097</v>
       </c>
       <c r="G14">
-        <v>0.0007924104134131657</v>
+        <v>0.002475051023727518</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.202832975717826</v>
+        <v>0.8272510025463475</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.8461241794947512</v>
+        <v>1.882016559020428</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.025397570624079</v>
+        <v>0.818099401495374</v>
       </c>
       <c r="C15">
-        <v>0.3012521589223809</v>
+        <v>0.09270348266943529</v>
       </c>
       <c r="D15">
-        <v>0.05154646250927186</v>
+        <v>0.06006254775921249</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.340883855028409</v>
+        <v>1.395946396881783</v>
       </c>
       <c r="G15">
-        <v>0.0007930902972975717</v>
+        <v>0.002475429079479841</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.177253809046192</v>
+        <v>0.8206082565113775</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.8512038257405763</v>
+        <v>1.884068797951024</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.890855608951654</v>
+        <v>0.7833269288479698</v>
       </c>
       <c r="C16">
-        <v>0.2809094000969878</v>
+        <v>0.08726417441110357</v>
       </c>
       <c r="D16">
-        <v>0.05136477007810569</v>
+        <v>0.05981864384933644</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.282954899160956</v>
+        <v>1.38692078613019</v>
       </c>
       <c r="G16">
-        <v>0.000797008046683146</v>
+        <v>0.002477628909515986</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.031561222495753</v>
+        <v>0.7826304058742437</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8809957514021605</v>
+        <v>1.896036222234216</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.809010497411208</v>
+        <v>0.7620814741288484</v>
       </c>
       <c r="C17">
-        <v>0.2685328456078651</v>
+        <v>0.08393184581771607</v>
       </c>
       <c r="D17">
-        <v>0.05125399021488874</v>
+        <v>0.05966850161784265</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.248373200602032</v>
+        <v>1.381602651413374</v>
       </c>
       <c r="G17">
-        <v>0.0007994316284903949</v>
+        <v>0.002479008255211995</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.942927720172662</v>
+        <v>0.7594116644403357</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.899862130414391</v>
+        <v>1.903562223645281</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.762171987957117</v>
+        <v>0.7498933906989294</v>
       </c>
       <c r="C18">
-        <v>0.2614490766502939</v>
+        <v>0.08201682564384782</v>
       </c>
       <c r="D18">
-        <v>0.05119050690800009</v>
+        <v>0.05958195807337319</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.22881601632524</v>
+        <v>1.378624077334209</v>
       </c>
       <c r="G18">
-        <v>0.0008008333614672105</v>
+        <v>0.002479812604201344</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.892201990058453</v>
+        <v>0.7460860473594835</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9109231108697813</v>
+        <v>1.907958649915216</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.746352293937065</v>
+        <v>0.7457721678229063</v>
       </c>
       <c r="C19">
-        <v>0.259056355256547</v>
+        <v>0.08136871460580153</v>
       </c>
       <c r="D19">
-        <v>0.0511690514277916</v>
+        <v>0.0595526243651392</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.222249884869328</v>
+        <v>1.377629358911548</v>
       </c>
       <c r="G19">
-        <v>0.0008013093269760679</v>
+        <v>0.002480086832293918</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.8750689460731</v>
+        <v>0.7415792351565074</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9147034896307673</v>
+        <v>1.909458818329696</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.817698169646462</v>
+        <v>0.7643398043787215</v>
       </c>
       <c r="C20">
-        <v>0.2698466737398064</v>
+        <v>0.08428640717761482</v>
       </c>
       <c r="D20">
-        <v>0.05126575832927571</v>
+        <v>0.0596845038144842</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.252019591463039</v>
+        <v>1.382160464780341</v>
       </c>
       <c r="G20">
-        <v>0.000799172839168391</v>
+        <v>0.002478860285176279</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.952336198241198</v>
+        <v>0.7618803180585303</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.8978319256350389</v>
+        <v>1.902754062450896</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.060362552292361</v>
+        <v>0.8271036495103772</v>
       </c>
       <c r="C21">
-        <v>0.3065386485445458</v>
+        <v>0.09410920843365034</v>
       </c>
       <c r="D21">
-        <v>0.05159359823949927</v>
+        <v>0.06012535680774178</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.356150671058487</v>
+        <v>1.398344375197524</v>
       </c>
       <c r="G21">
-        <v>0.0007920847599166145</v>
+        <v>0.002474870324691897</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.215115388893111</v>
+        <v>0.830437955057107</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8437007006879824</v>
+        <v>1.881036117243646</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.221453324659592</v>
+        <v>0.8684058050031354</v>
       </c>
       <c r="C22">
-        <v>0.3308953237382752</v>
+        <v>0.1005438710104158</v>
       </c>
       <c r="D22">
-        <v>0.05181034246122707</v>
+        <v>0.06041175038199853</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.42756905137874</v>
+        <v>1.409639040118506</v>
       </c>
       <c r="G22">
-        <v>0.0007875138643077539</v>
+        <v>0.002472359920556076</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.389547847185355</v>
+        <v>0.8755043705588434</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.8103488197145978</v>
+        <v>1.867446642385559</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.135227919942963</v>
+        <v>0.8463362453063041</v>
       </c>
       <c r="C23">
-        <v>0.3178579021196981</v>
+        <v>0.09710819659215986</v>
       </c>
       <c r="D23">
-        <v>0.05169441195180724</v>
+        <v>0.06025905859348413</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.389123821009122</v>
+        <v>1.403545078727291</v>
       </c>
       <c r="G23">
-        <v>0.0007899481841746131</v>
+        <v>0.002473690897506532</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.296181699392633</v>
+        <v>0.8514277770460978</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.8279557614229844</v>
+        <v>1.87464420159808</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.813769806472123</v>
+        <v>0.7633187316250485</v>
       </c>
       <c r="C24">
-        <v>0.2692525940760504</v>
+        <v>0.08412610756104755</v>
       </c>
       <c r="D24">
-        <v>0.05126043732874663</v>
+        <v>0.05967726992040312</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.250370052282861</v>
+        <v>1.381908031634509</v>
       </c>
       <c r="G24">
-        <v>0.0007992898116885079</v>
+        <v>0.002478927147115464</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.948081910865881</v>
+        <v>0.7607641676630408</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.8987491149750966</v>
+        <v>1.903119215244388</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.475886870783313</v>
+        <v>0.6749842302265279</v>
       </c>
       <c r="C25">
-        <v>0.2181273188330977</v>
+        <v>0.07018561075551588</v>
       </c>
       <c r="D25">
-        <v>0.05080121056268538</v>
+        <v>0.05904266201211428</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.113256354306372</v>
+        <v>1.361636378572101</v>
       </c>
       <c r="G25">
-        <v>0.0008096662948036169</v>
+        <v>0.002484995646420793</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.582103187851317</v>
+        <v>0.6640843074048064</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.9830469693134063</v>
+        <v>1.936420257091704</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_60/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_60/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6109724624622288</v>
+        <v>1.232837444240886</v>
       </c>
       <c r="C2">
-        <v>0.05997153799206956</v>
+        <v>0.1812898425356479</v>
       </c>
       <c r="D2">
-        <v>0.05856964968633349</v>
+        <v>0.05046945457884533</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.349328526400285</v>
+        <v>1.021211338682662</v>
       </c>
       <c r="G2">
-        <v>0.002489829265264314</v>
+        <v>0.0008176015305270593</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.5938401813831149</v>
+        <v>1.31872174385407</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.963158319943183</v>
+        <v>1.05120082591904</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.568226392564668</v>
+        <v>1.070859105185576</v>
       </c>
       <c r="C3">
-        <v>0.05307900734466386</v>
+        <v>0.1566888615209336</v>
       </c>
       <c r="D3">
-        <v>0.05824567024120952</v>
+        <v>0.05024835299732544</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.342611000863641</v>
+        <v>0.9635532886539124</v>
       </c>
       <c r="G3">
-        <v>0.002493334951751594</v>
+        <v>0.0008231800018492994</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.5468139539168817</v>
+        <v>1.143099754684158</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.982660104844271</v>
+        <v>1.100858563027217</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5422921543181189</v>
+        <v>0.9725048927919886</v>
       </c>
       <c r="C4">
-        <v>0.0488611280244271</v>
+        <v>0.1417222887680367</v>
       </c>
       <c r="D4">
-        <v>0.05804512657321226</v>
+        <v>0.05011445603657094</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.339284429731222</v>
+        <v>0.9302292063604511</v>
       </c>
       <c r="G4">
-        <v>0.002495601496713444</v>
+        <v>0.0008267092114024729</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5182233303110877</v>
+        <v>1.036409900173766</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.995314520940575</v>
+        <v>1.132961594381655</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5318022431780207</v>
+        <v>0.9326676779969603</v>
       </c>
       <c r="C5">
-        <v>0.04714583641532499</v>
+        <v>0.1356525463540663</v>
       </c>
       <c r="D5">
-        <v>0.05796300782772335</v>
+        <v>0.05006037284350739</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.338129170954666</v>
+        <v>0.9171373682038961</v>
       </c>
       <c r="G5">
-        <v>0.002496553897392021</v>
+        <v>0.0008281742340776294</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5066437329278415</v>
+        <v>0.9931828885262348</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.000642163209513</v>
+        <v>1.14643565490405</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5300651440662136</v>
+        <v>0.9260664583437688</v>
       </c>
       <c r="C6">
-        <v>0.04686122572331897</v>
+        <v>0.1346462813208547</v>
       </c>
       <c r="D6">
-        <v>0.05794934852337263</v>
+        <v>0.05005142194773171</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.337949432168131</v>
+        <v>0.9149919811809752</v>
       </c>
       <c r="G6">
-        <v>0.002496713782854378</v>
+        <v>0.0008284191405520176</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5047252564274345</v>
+        <v>0.9860191258278235</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.001537128541678</v>
+        <v>1.148696290518174</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5421503658014046</v>
+        <v>0.9719666939332114</v>
       </c>
       <c r="C7">
-        <v>0.04883798075672985</v>
+        <v>0.1416403187387516</v>
       </c>
       <c r="D7">
-        <v>0.05804402067745329</v>
+        <v>0.05011372468140252</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.339268038744152</v>
+        <v>0.9300507135388898</v>
       </c>
       <c r="G7">
-        <v>0.002495614224425003</v>
+        <v>0.0008267288596193928</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5180668750837185</v>
+        <v>1.035825961147822</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.99538567981698</v>
+        <v>1.133141741403051</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5961688668097054</v>
+        <v>1.176737607737437</v>
       </c>
       <c r="C8">
-        <v>0.05759203205712993</v>
+        <v>0.1727751916693308</v>
       </c>
       <c r="D8">
-        <v>0.05845828435034761</v>
+        <v>0.05039283794380367</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.346846495239447</v>
+        <v>1.000878010180344</v>
       </c>
       <c r="G8">
-        <v>0.002491014410929775</v>
+        <v>0.0008195038278532596</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.5775666354073223</v>
+        <v>1.257906800863424</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.96974124014136</v>
+        <v>1.067979477825126</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7045791812280413</v>
+        <v>1.588694048439294</v>
       </c>
       <c r="C9">
-        <v>0.074873448051477</v>
+        <v>0.2352040337402741</v>
       </c>
       <c r="D9">
-        <v>0.05925734663540183</v>
+        <v>0.05095485389616883</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.368056930979037</v>
+        <v>1.157940353321294</v>
       </c>
       <c r="G9">
-        <v>0.002482894958900579</v>
+        <v>0.0008061274642532822</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.6965037981217108</v>
+        <v>1.704307085802071</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.924857722016625</v>
+        <v>0.953659259319231</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7857554829511173</v>
+        <v>1.900228032345922</v>
       </c>
       <c r="C10">
-        <v>0.08764464024568497</v>
+        <v>0.282326592311307</v>
       </c>
       <c r="D10">
-        <v>0.05983575069961589</v>
+        <v>0.05137744371404906</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.387538509164017</v>
+        <v>1.286947356826474</v>
       </c>
       <c r="G10">
-        <v>0.002477473003175391</v>
+        <v>0.0007967325253125832</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.7852837813742326</v>
+        <v>2.041710724563529</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.8951866288483</v>
+        <v>0.8788718790711982</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8230201785676741</v>
+        <v>2.04449914387726</v>
       </c>
       <c r="C11">
-        <v>0.0934718400876875</v>
+        <v>0.304140201311867</v>
       </c>
       <c r="D11">
-        <v>0.06009688977066929</v>
+        <v>0.05157221718774707</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.39725390089778</v>
+        <v>1.349213591606855</v>
       </c>
       <c r="G11">
-        <v>0.002475123190476948</v>
+        <v>0.0007925403469590901</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.8259803615659393</v>
+        <v>2.197937859908308</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.882408208735839</v>
+        <v>0.8470928672844309</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.837179954690555</v>
+        <v>2.099554509373434</v>
       </c>
       <c r="C12">
-        <v>0.09568102677783941</v>
+        <v>0.3124642377317457</v>
       </c>
       <c r="D12">
-        <v>0.06019548163601129</v>
+        <v>0.05164639277934668</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.401055981142505</v>
+        <v>1.373364173252114</v>
       </c>
       <c r="G12">
-        <v>0.002474250061281305</v>
+        <v>0.0007909635214550218</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.8414358842540537</v>
+        <v>2.257553694428452</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.877672978657678</v>
+        <v>0.8354043163383338</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8341282396152678</v>
+        <v>2.087677589956172</v>
       </c>
       <c r="C13">
-        <v>0.09520512483686616</v>
+        <v>0.3106685142492154</v>
       </c>
       <c r="D13">
-        <v>0.06017426144561355</v>
+        <v>0.0516303980325894</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.400231655159971</v>
+        <v>1.368136523740034</v>
       </c>
       <c r="G13">
-        <v>0.002474437364105099</v>
+        <v>0.0007913026630598498</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.8381052765362824</v>
+        <v>2.244693027441002</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.878688179572862</v>
+        <v>0.8379058992304707</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.8241841412039435</v>
+        <v>2.049019764695004</v>
       </c>
       <c r="C14">
-        <v>0.09365353985646152</v>
+        <v>0.3048236908149136</v>
       </c>
       <c r="D14">
-        <v>0.06010500697504639</v>
+        <v>0.05157831088089537</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.39756423151097</v>
+        <v>1.351188671861138</v>
       </c>
       <c r="G14">
-        <v>0.002475051023727518</v>
+        <v>0.0007924104133334029</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.8272510025463475</v>
+        <v>2.20283297571774</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.882016559020428</v>
+        <v>0.8461241794946872</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.818099401495374</v>
+        <v>2.025397570624079</v>
       </c>
       <c r="C15">
-        <v>0.09270348266943529</v>
+        <v>0.301252158921983</v>
       </c>
       <c r="D15">
-        <v>0.06006254775921249</v>
+        <v>0.05154646250912265</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.395946396881783</v>
+        <v>1.340883855028423</v>
       </c>
       <c r="G15">
-        <v>0.002475429079479841</v>
+        <v>0.0007930902972986605</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.8206082565113775</v>
+        <v>2.177253809046277</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.884068797951024</v>
+        <v>0.8512038257405834</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7833269288479698</v>
+        <v>1.890855608951739</v>
       </c>
       <c r="C16">
-        <v>0.08726417441110357</v>
+        <v>0.2809094000971299</v>
       </c>
       <c r="D16">
-        <v>0.05981864384933644</v>
+        <v>0.05136477007814477</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.38692078613019</v>
+        <v>1.282954899160956</v>
       </c>
       <c r="G16">
-        <v>0.002477628909515986</v>
+        <v>0.0007970080466452852</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.7826304058742437</v>
+        <v>2.031561222495839</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.896036222234216</v>
+        <v>0.8809957514021676</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7620814741288484</v>
+        <v>1.809010497411151</v>
       </c>
       <c r="C17">
-        <v>0.08393184581771607</v>
+        <v>0.2685328456077514</v>
       </c>
       <c r="D17">
-        <v>0.05966850161784265</v>
+        <v>0.05125399021488874</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.381602651413374</v>
+        <v>1.248373200602018</v>
       </c>
       <c r="G17">
-        <v>0.002479008255211995</v>
+        <v>0.0007994316285188023</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.7594116644403357</v>
+        <v>1.942927720172776</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.903562223645281</v>
+        <v>0.8998621304144052</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7498933906989294</v>
+        <v>1.762171987957146</v>
       </c>
       <c r="C18">
-        <v>0.08201682564384782</v>
+        <v>0.2614490766504218</v>
       </c>
       <c r="D18">
-        <v>0.05958195807337319</v>
+        <v>0.05119050690791838</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.378624077334209</v>
+        <v>1.228816016325254</v>
       </c>
       <c r="G18">
-        <v>0.002479812604201344</v>
+        <v>0.0008008333614586301</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.7460860473594835</v>
+        <v>1.89220199005851</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.907958649915216</v>
+        <v>0.9109231108697742</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7457721678229063</v>
+        <v>1.746352293937065</v>
       </c>
       <c r="C19">
-        <v>0.08136871460580153</v>
+        <v>0.2590563552564475</v>
       </c>
       <c r="D19">
-        <v>0.0595526243651392</v>
+        <v>0.0511690514277916</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.377629358911548</v>
+        <v>1.222249884869314</v>
       </c>
       <c r="G19">
-        <v>0.002480086832293918</v>
+        <v>0.0008013093270126238</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.7415792351565074</v>
+        <v>1.875068946073185</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.909458818329696</v>
+        <v>0.9147034896307105</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7643398043787215</v>
+        <v>1.817698169646349</v>
       </c>
       <c r="C20">
-        <v>0.08428640717761482</v>
+        <v>0.2698466737396643</v>
       </c>
       <c r="D20">
-        <v>0.0596845038144842</v>
+        <v>0.05126575832927927</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.382160464780341</v>
+        <v>1.252019591463053</v>
       </c>
       <c r="G20">
-        <v>0.002478860285176279</v>
+        <v>0.0007991728391781001</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.7618803180585303</v>
+        <v>1.952336198241227</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.902754062450896</v>
+        <v>0.8978319256350531</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.8271036495103772</v>
+        <v>2.060362552292304</v>
       </c>
       <c r="C21">
-        <v>0.09410920843365034</v>
+        <v>0.3065386485446595</v>
       </c>
       <c r="D21">
-        <v>0.06012535680774178</v>
+        <v>0.05159359823942111</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.398344375197524</v>
+        <v>1.356150671058515</v>
       </c>
       <c r="G21">
-        <v>0.002474870324691897</v>
+        <v>0.000792084759889192</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.830437955057107</v>
+        <v>2.215115388893025</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.881036117243646</v>
+        <v>0.8437007006879966</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.8684058050031354</v>
+        <v>2.221453324659649</v>
       </c>
       <c r="C22">
-        <v>0.1005438710104158</v>
+        <v>0.3308953237383605</v>
       </c>
       <c r="D22">
-        <v>0.06041175038199853</v>
+        <v>0.05181034246133009</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.409639040118506</v>
+        <v>1.427569051378725</v>
       </c>
       <c r="G22">
-        <v>0.002472359920556076</v>
+        <v>0.0007875138643104184</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.8755043705588434</v>
+        <v>2.38954784718527</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.867446642385559</v>
+        <v>0.8103488197146262</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.8463362453063041</v>
+        <v>2.135227919942793</v>
       </c>
       <c r="C23">
-        <v>0.09710819659215986</v>
+        <v>0.3178579021197834</v>
       </c>
       <c r="D23">
-        <v>0.06025905859348413</v>
+        <v>0.05169441195190672</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.403545078727291</v>
+        <v>1.389123821009136</v>
       </c>
       <c r="G23">
-        <v>0.002473690897506532</v>
+        <v>0.0007899481841140785</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.8514277770460978</v>
+        <v>2.296181699392577</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.87464420159808</v>
+        <v>0.8279557614229631</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7633187316250485</v>
+        <v>1.813769806472095</v>
       </c>
       <c r="C24">
-        <v>0.08412610756104755</v>
+        <v>0.2692525940760504</v>
       </c>
       <c r="D24">
-        <v>0.05967726992040312</v>
+        <v>0.05126043732871111</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.381908031634509</v>
+        <v>1.250370052282875</v>
       </c>
       <c r="G24">
-        <v>0.002478927147115464</v>
+        <v>0.0007992898116894187</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.7607641676630408</v>
+        <v>1.948081910865881</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.903119215244388</v>
+        <v>0.8987491149751037</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6749842302265279</v>
+        <v>1.475886870783313</v>
       </c>
       <c r="C25">
-        <v>0.07018561075551588</v>
+        <v>0.2181273188331119</v>
       </c>
       <c r="D25">
-        <v>0.05904266201211428</v>
+        <v>0.05080121056279197</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.361636378572101</v>
+        <v>1.113256354306358</v>
       </c>
       <c r="G25">
-        <v>0.002484995646420793</v>
+        <v>0.0008096662948039818</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.6640843074048064</v>
+        <v>1.582103187851317</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.936420257091704</v>
+        <v>0.9830469693133779</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_60/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_60/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.232837444240886</v>
+        <v>3.372018479532812</v>
       </c>
       <c r="C2">
-        <v>0.1812898425356479</v>
+        <v>0.6041044994987885</v>
       </c>
       <c r="D2">
-        <v>0.05046945457884533</v>
+        <v>0.04477008206843536</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.021211338682662</v>
+        <v>1.109581124649907</v>
       </c>
       <c r="G2">
-        <v>0.0008176015305270593</v>
+        <v>0.8714108203312492</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.004643431772056839</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.004543720832618892</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.6003443931141703</v>
       </c>
       <c r="K2">
-        <v>1.31872174385407</v>
+        <v>0.5392190135641428</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.0720140566386096</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.05120082591904</v>
+        <v>0.3830562796319583</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.070859105185576</v>
+        <v>2.939085374406602</v>
       </c>
       <c r="C3">
-        <v>0.1566888615209336</v>
+        <v>0.5295546319588595</v>
       </c>
       <c r="D3">
-        <v>0.05024835299732544</v>
+        <v>0.04106060672112832</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9635532886539124</v>
+        <v>1.051694427889686</v>
       </c>
       <c r="G3">
-        <v>0.0008231800018492994</v>
+        <v>0.8182489708710392</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.007222927769526932</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.007055011683012147</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.5812742678424314</v>
       </c>
       <c r="K3">
-        <v>1.143099754684158</v>
+        <v>0.5327254775832309</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.06822178561182479</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.100858563027217</v>
+        <v>0.3386465312522375</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9725048927919886</v>
+        <v>2.67324295119289</v>
       </c>
       <c r="C4">
-        <v>0.1417222887680367</v>
+        <v>0.4841022079219499</v>
       </c>
       <c r="D4">
-        <v>0.05011445603657094</v>
+        <v>0.03880675560910518</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9302292063604511</v>
+        <v>1.016890911660816</v>
       </c>
       <c r="G4">
-        <v>0.0008267092114024729</v>
+        <v>0.7863135078320624</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.009154122305365456</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.008987949041342258</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.5700162192715226</v>
       </c>
       <c r="K4">
-        <v>1.036409900173766</v>
+        <v>0.5290974432767115</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.06585527985049655</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.132961594381655</v>
+        <v>0.3115003422417999</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9326676779969603</v>
+        <v>2.56487379576123</v>
       </c>
       <c r="C5">
-        <v>0.1356525463540663</v>
+        <v>0.4663495758441343</v>
       </c>
       <c r="D5">
-        <v>0.05006037284350739</v>
+        <v>0.03794103924819936</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9171373682038961</v>
+        <v>1.001535868964829</v>
       </c>
       <c r="G5">
-        <v>0.0008281742340776294</v>
+        <v>0.7721093897563236</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.01002931275746088</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.009953490979129676</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.5648395168978908</v>
       </c>
       <c r="K5">
-        <v>0.9931828885262348</v>
+        <v>0.5268459388280817</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.06483991244720499</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.14643565490405</v>
+        <v>0.3006963709998161</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9260664583437688</v>
+        <v>2.546868773057327</v>
       </c>
       <c r="C6">
-        <v>0.1346462813208547</v>
+        <v>0.4642632702495746</v>
       </c>
       <c r="D6">
-        <v>0.05005142194773171</v>
+        <v>0.03785590131172967</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9149919811809752</v>
+        <v>0.9973534882121626</v>
       </c>
       <c r="G6">
-        <v>0.0008284191405520176</v>
+        <v>0.7681077582594611</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.01018560874950016</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.01022979688498005</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.5631363445074555</v>
       </c>
       <c r="K6">
-        <v>0.9860191258278235</v>
+        <v>0.5254302453682023</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.06462153203504251</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.148696290518174</v>
+        <v>0.2991884745569138</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9719666939332114</v>
+        <v>2.671755432178202</v>
       </c>
       <c r="C7">
-        <v>0.1416403187387516</v>
+        <v>0.4862106154870389</v>
       </c>
       <c r="D7">
-        <v>0.05011372468140252</v>
+        <v>0.03895436158033405</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9300507135388898</v>
+        <v>1.012195287905094</v>
       </c>
       <c r="G7">
-        <v>0.0008267288596193928</v>
+        <v>0.7816046167799584</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.009180906780726292</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.009284300982480787</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.5676256098530246</v>
       </c>
       <c r="K7">
-        <v>1.035825961147822</v>
+        <v>0.526208789919913</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.06570764993319589</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.133141741403051</v>
+        <v>0.3121336050972872</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.176737607737437</v>
+        <v>3.222676583684631</v>
       </c>
       <c r="C8">
-        <v>0.1727751916693308</v>
+        <v>0.5814640033225089</v>
       </c>
       <c r="D8">
-        <v>0.05039283794380367</v>
+        <v>0.04369707823462932</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.000878010180344</v>
+        <v>1.083522130878436</v>
       </c>
       <c r="G8">
-        <v>0.0008195038278532596</v>
+        <v>0.846941960712229</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.005473017353895437</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.005659617709135034</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.5906077411414401</v>
       </c>
       <c r="K8">
-        <v>1.257906800863424</v>
+        <v>0.5331348496243891</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.07053747889333994</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.067979477825126</v>
+        <v>0.3687547719895861</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.588694048439294</v>
+        <v>4.30422290793291</v>
       </c>
       <c r="C9">
-        <v>0.2352040337402741</v>
+        <v>0.7670703827450609</v>
       </c>
       <c r="D9">
-        <v>0.05095485389616883</v>
+        <v>0.05293885828768907</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.157940353321294</v>
+        <v>1.23797718781195</v>
       </c>
       <c r="G9">
-        <v>0.0008061274642532822</v>
+        <v>0.989513727381663</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.001135139264772267</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.001467952242593107</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.6437308690592403</v>
       </c>
       <c r="K9">
-        <v>1.704307085802071</v>
+        <v>0.5549319583928565</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.07999878773338853</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.953659259319231</v>
+        <v>0.479567980297773</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.900228032345922</v>
+        <v>5.100944213512662</v>
       </c>
       <c r="C10">
-        <v>0.282326592311307</v>
+        <v>0.9125023295397909</v>
       </c>
       <c r="D10">
-        <v>0.05137744371404906</v>
+        <v>0.05918598968232658</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.286947356826474</v>
+        <v>1.329885166775355</v>
       </c>
       <c r="G10">
-        <v>0.0007967325253125832</v>
+        <v>1.07573000712695</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0002352005919443734</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.0008924304750319578</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.6737674281174577</v>
       </c>
       <c r="K10">
-        <v>2.041710724563529</v>
+        <v>0.5599177908006823</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.08539831736397829</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.8788718790711982</v>
+        <v>0.5480729908768893</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.04449914387726</v>
+        <v>5.459815623355837</v>
       </c>
       <c r="C11">
-        <v>0.304140201311867</v>
+        <v>1.031034415210115</v>
       </c>
       <c r="D11">
-        <v>0.05157221718774707</v>
+        <v>0.05542820720530983</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.349213591606855</v>
+        <v>1.161718306021186</v>
       </c>
       <c r="G11">
-        <v>0.0007925403469590901</v>
+        <v>0.9311266273784184</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.01877088096201618</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.00150092799047119</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.5945014291100961</v>
       </c>
       <c r="K11">
-        <v>2.197937859908308</v>
+        <v>0.4616126656852515</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.08386571073828719</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.8470928672844309</v>
+        <v>0.4614348216790489</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.099554509373434</v>
+        <v>5.594144754340334</v>
       </c>
       <c r="C12">
-        <v>0.3124642377317457</v>
+        <v>1.099144200352896</v>
       </c>
       <c r="D12">
-        <v>0.05164639277934668</v>
+        <v>0.05096640414276621</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.373364173252114</v>
+        <v>1.015652697646516</v>
       </c>
       <c r="G12">
-        <v>0.0007909635214550218</v>
+        <v>0.8053415839152933</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05745014641050261</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.001530467270466573</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.5282576533649745</v>
       </c>
       <c r="K12">
-        <v>2.257553694428452</v>
+        <v>0.3899366712551817</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.09286704148592761</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.8354043163383338</v>
+        <v>0.3799449508698132</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.087677589956172</v>
+        <v>5.561902366069205</v>
       </c>
       <c r="C13">
-        <v>0.3106685142492154</v>
+        <v>1.135344224013977</v>
       </c>
       <c r="D13">
-        <v>0.0516303980325894</v>
+        <v>0.04596417359059046</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.368136523740034</v>
+        <v>0.8712590686826331</v>
       </c>
       <c r="G13">
-        <v>0.0007913026630598498</v>
+        <v>0.6796786250878029</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1132462138771615</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.0014250152832469</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.4645067581976861</v>
       </c>
       <c r="K13">
-        <v>2.244693027441002</v>
+        <v>0.3299572555846524</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1099558693942946</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.8379058992304707</v>
+        <v>0.2995152725126218</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.049019764695004</v>
+        <v>5.463909903962303</v>
       </c>
       <c r="C14">
-        <v>0.3048236908149136</v>
+        <v>1.147084650265924</v>
       </c>
       <c r="D14">
-        <v>0.05157831088089537</v>
+        <v>0.04232493309205765</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.351188671861138</v>
+        <v>0.7719337636335197</v>
       </c>
       <c r="G14">
-        <v>0.0007924104133334029</v>
+        <v>0.5925219606482415</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1626722888950667</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.0014121617201166</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.4213003814278977</v>
       </c>
       <c r="K14">
-        <v>2.20283297571774</v>
+        <v>0.2940419383090926</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1268973801221236</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.8461241794946872</v>
+        <v>0.24544259745646</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.025397570624079</v>
+        <v>5.404525036374991</v>
       </c>
       <c r="C15">
-        <v>0.301252158921983</v>
+        <v>1.14380134537555</v>
       </c>
       <c r="D15">
-        <v>0.05154646250912265</v>
+        <v>0.04133739726226082</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.340883855028423</v>
+        <v>0.7459727410828307</v>
       </c>
       <c r="G15">
-        <v>0.0007930902972986605</v>
+        <v>0.5692715999825708</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1752308298757015</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.001520557415610746</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.4102896977908728</v>
       </c>
       <c r="K15">
-        <v>2.177253809046277</v>
+        <v>0.286194343648269</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1313048918193331</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.8512038257405834</v>
+        <v>0.2318853900212758</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.890855608951739</v>
+        <v>5.066734553073388</v>
       </c>
       <c r="C16">
-        <v>0.2809094000971299</v>
+        <v>1.073368738799758</v>
       </c>
       <c r="D16">
-        <v>0.05136477007814477</v>
+        <v>0.03984464449513325</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.282954899160956</v>
+        <v>0.7353048723158722</v>
       </c>
       <c r="G16">
-        <v>0.0007970080466452852</v>
+        <v>0.5567369672547073</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1628500842912501</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.001745839441208652</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.4094976982817542</v>
       </c>
       <c r="K16">
-        <v>2.031561222495839</v>
+        <v>0.2949669748026409</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1249006792294409</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8809957514021676</v>
+        <v>0.2216832508717914</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.809010497411151</v>
+        <v>4.860450968410476</v>
       </c>
       <c r="C17">
-        <v>0.2685328456077514</v>
+        <v>1.013448005275734</v>
       </c>
       <c r="D17">
-        <v>0.05125399021488874</v>
+        <v>0.04060028442451369</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.248373200602018</v>
+        <v>0.7786465735718053</v>
       </c>
       <c r="G17">
-        <v>0.0007994316285188023</v>
+        <v>0.5923461477145793</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.125348913714987</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.002002121961903747</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.4313947262552347</v>
       </c>
       <c r="K17">
-        <v>1.942927720172776</v>
+        <v>0.3199431765681027</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1101165320100712</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8998621304144052</v>
+        <v>0.2415011159824019</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.762171987957146</v>
+        <v>4.743005526008631</v>
       </c>
       <c r="C18">
-        <v>0.2614490766504218</v>
+        <v>0.9543260111445022</v>
       </c>
       <c r="D18">
-        <v>0.05119050690791838</v>
+        <v>0.04343057697024122</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.228816016325254</v>
+        <v>0.8808687791258478</v>
       </c>
       <c r="G18">
-        <v>0.0008008333614586301</v>
+        <v>0.6803731154831212</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.0726071142316087</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.001864151883890663</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.4786875121247789</v>
       </c>
       <c r="K18">
-        <v>1.89220199005851</v>
+        <v>0.3673116177114899</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.09163388621751878</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9109231108697742</v>
+        <v>0.2929223742004012</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.746352293937065</v>
+        <v>4.704980074706498</v>
       </c>
       <c r="C19">
-        <v>0.2590563552564475</v>
+        <v>0.9065488199700269</v>
       </c>
       <c r="D19">
-        <v>0.0511690514277916</v>
+        <v>0.0482320540449237</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.222249884869314</v>
+        <v>1.024373908346305</v>
       </c>
       <c r="G19">
-        <v>0.0008013093270126238</v>
+        <v>0.804588268466631</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02717676168341399</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.001921915212828473</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.5428565630009956</v>
       </c>
       <c r="K19">
-        <v>1.875068946073185</v>
+        <v>0.4322078154286402</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.07954986274442888</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9147034896307105</v>
+        <v>0.3736198556354111</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.817698169646349</v>
+        <v>4.891236234849998</v>
       </c>
       <c r="C20">
-        <v>0.2698466737396643</v>
+        <v>0.8819141110847113</v>
       </c>
       <c r="D20">
-        <v>0.05126575832927927</v>
+        <v>0.05799788639542669</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.252019591463053</v>
+        <v>1.290496993286084</v>
       </c>
       <c r="G20">
-        <v>0.0007991728391781001</v>
+        <v>1.037836855576145</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.0003175216830406669</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.001665933556195931</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.6580941300310315</v>
       </c>
       <c r="K20">
-        <v>1.952336198241227</v>
+        <v>0.5492633771315667</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.08352820078807532</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.8978319256350531</v>
+        <v>0.5318978886236891</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.060362552292304</v>
+        <v>5.50474402664122</v>
       </c>
       <c r="C21">
-        <v>0.3065386485446595</v>
+        <v>0.9849088658199321</v>
       </c>
       <c r="D21">
-        <v>0.05159359823942111</v>
+        <v>0.0640361400712095</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.356150671058515</v>
+        <v>1.403540547605516</v>
       </c>
       <c r="G21">
-        <v>0.000792084759889192</v>
+        <v>1.141768547819311</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>6.460017329534828E-05</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.001888163486667871</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.7003429905228415</v>
       </c>
       <c r="K21">
-        <v>2.215115388893025</v>
+        <v>0.5742780545796791</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.08993697923095301</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8437007006879966</v>
+        <v>0.6065833015051254</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.221453324659649</v>
+        <v>5.906755267569054</v>
       </c>
       <c r="C22">
-        <v>0.3308953237383605</v>
+        <v>1.052467712156243</v>
       </c>
       <c r="D22">
-        <v>0.05181034246133009</v>
+        <v>0.06740789924627677</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.427569051378725</v>
+        <v>1.472130049996295</v>
       </c>
       <c r="G22">
-        <v>0.0007875138643104184</v>
+        <v>1.206057886411628</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.0004710423026141886</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.002279136863833742</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.7261769334401436</v>
       </c>
       <c r="K22">
-        <v>2.38954784718527</v>
+        <v>0.5887705427232319</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.09359871374379658</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.8103488197146262</v>
+        <v>0.6473401071594651</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.135227919942793</v>
+        <v>5.692184721204171</v>
       </c>
       <c r="C23">
-        <v>0.3178579021197834</v>
+        <v>1.013454218878195</v>
       </c>
       <c r="D23">
-        <v>0.05169441195190672</v>
+        <v>0.06541067607017226</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.389123821009136</v>
+        <v>1.440676040671377</v>
       </c>
       <c r="G23">
-        <v>0.0007899481841140785</v>
+        <v>1.176945121823678</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.0002103929743846322</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.001723446326625577</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.7150260898941383</v>
       </c>
       <c r="K23">
-        <v>2.296181699392577</v>
+        <v>0.5842793704263869</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.0917973449895122</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.8279557614229631</v>
+        <v>0.6246075869006944</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.813769806472095</v>
+        <v>4.881745220944481</v>
       </c>
       <c r="C24">
-        <v>0.2692525940760504</v>
+        <v>0.8716795118102425</v>
       </c>
       <c r="D24">
-        <v>0.05126043732871111</v>
+        <v>0.05825783601338941</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.250370052282875</v>
+        <v>1.315968614267561</v>
       </c>
       <c r="G24">
-        <v>0.0007992898116894187</v>
+        <v>1.061078582958672</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.0001779348914734413</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.001169757060319299</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.6700348538838341</v>
       </c>
       <c r="K24">
-        <v>1.948081910865881</v>
+        <v>0.5633219170731607</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.08476605337191945</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.8987491149751037</v>
+        <v>0.5406019921891954</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.475886870783313</v>
+        <v>4.011210279686452</v>
       </c>
       <c r="C25">
-        <v>0.2181273188331119</v>
+        <v>0.720799660880175</v>
       </c>
       <c r="D25">
-        <v>0.05080121056279197</v>
+        <v>0.05069981836723514</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.113256354306358</v>
+        <v>1.187290217153233</v>
       </c>
       <c r="G25">
-        <v>0.0008096662948039818</v>
+        <v>0.9419863395470713</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.001975244269716625</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.002663692873003498</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.6247238710036243</v>
       </c>
       <c r="K25">
-        <v>1.582103187851317</v>
+        <v>0.5435546763164965</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.07721952219616579</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.9830469693133779</v>
+        <v>0.4508651216222859</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_60/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_60/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.372018479532812</v>
+        <v>3.377993993464202</v>
       </c>
       <c r="C2">
-        <v>0.6041044994987885</v>
+        <v>0.6561681305183242</v>
       </c>
       <c r="D2">
-        <v>0.04477008206843536</v>
+        <v>0.05049688093779281</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.109581124649907</v>
+        <v>0.9799521936920144</v>
       </c>
       <c r="G2">
-        <v>0.8714108203312492</v>
+        <v>0.7258611905559462</v>
       </c>
       <c r="H2">
-        <v>0.004643431772056839</v>
+        <v>0.003637987681179289</v>
       </c>
       <c r="I2">
-        <v>0.004543720832618892</v>
+        <v>0.003172658364265502</v>
       </c>
       <c r="J2">
-        <v>0.6003443931141703</v>
+        <v>0.5608236671930626</v>
       </c>
       <c r="K2">
-        <v>0.5392190135641428</v>
+        <v>0.4481083226342442</v>
       </c>
       <c r="L2">
-        <v>0.0720140566386096</v>
+        <v>0.2060766307043735</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1345249984125054</v>
       </c>
       <c r="N2">
-        <v>0.3830562796319583</v>
+        <v>0.06797466125521634</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.4107145920002182</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.939085374406602</v>
+        <v>2.944306402964628</v>
       </c>
       <c r="C3">
-        <v>0.5295546319588595</v>
+        <v>0.5701488695642922</v>
       </c>
       <c r="D3">
-        <v>0.04106060672112832</v>
+        <v>0.0462958207502453</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.051694427889686</v>
+        <v>0.9378351077634619</v>
       </c>
       <c r="G3">
-        <v>0.8182489708710392</v>
+        <v>0.6908711096865972</v>
       </c>
       <c r="H3">
-        <v>0.007222927769526932</v>
+        <v>0.005728255196024157</v>
       </c>
       <c r="I3">
-        <v>0.007055011683012147</v>
+        <v>0.00494220742916518</v>
       </c>
       <c r="J3">
-        <v>0.5812742678424314</v>
+        <v>0.5446139254442386</v>
       </c>
       <c r="K3">
-        <v>0.5327254775832309</v>
+        <v>0.4497833303692573</v>
       </c>
       <c r="L3">
-        <v>0.06822178561182479</v>
+        <v>0.2106031546967877</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1324406678398447</v>
       </c>
       <c r="N3">
-        <v>0.3386465312522375</v>
+        <v>0.06485468928088167</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.3630708647600756</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.67324295119289</v>
+        <v>2.677747801516716</v>
       </c>
       <c r="C4">
-        <v>0.4841022079219499</v>
+        <v>0.5177933294596357</v>
       </c>
       <c r="D4">
-        <v>0.03880675560910518</v>
+        <v>0.04374786989642487</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.016890911660816</v>
+        <v>0.9124381344014978</v>
       </c>
       <c r="G4">
-        <v>0.7863135078320624</v>
+        <v>0.6700347819977708</v>
       </c>
       <c r="H4">
-        <v>0.009154122305365456</v>
+        <v>0.007300988090651828</v>
       </c>
       <c r="I4">
-        <v>0.008987949041342258</v>
+        <v>0.006338311037460187</v>
       </c>
       <c r="J4">
-        <v>0.5700162192715226</v>
+        <v>0.5347061434699043</v>
       </c>
       <c r="K4">
-        <v>0.5290974432767115</v>
+        <v>0.4510346437264694</v>
       </c>
       <c r="L4">
-        <v>0.06585527985049655</v>
+        <v>0.2133626510979774</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1318782382424519</v>
       </c>
       <c r="N4">
-        <v>0.3115003422417999</v>
+        <v>0.06290112265375081</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.3339705752311772</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.56487379576123</v>
+        <v>2.569026197100641</v>
       </c>
       <c r="C5">
-        <v>0.4663495758441343</v>
+        <v>0.4972516793058901</v>
       </c>
       <c r="D5">
-        <v>0.03794103924819936</v>
+        <v>0.04276383467805545</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.001535868964829</v>
+        <v>0.9010316137441805</v>
       </c>
       <c r="G5">
-        <v>0.7721093897563236</v>
+        <v>0.6605457749662378</v>
       </c>
       <c r="H5">
-        <v>0.01002931275746088</v>
+        <v>0.008015372579863955</v>
       </c>
       <c r="I5">
-        <v>0.009953490979129676</v>
+        <v>0.007076554244497046</v>
       </c>
       <c r="J5">
-        <v>0.5648395168978908</v>
+        <v>0.5300647886280245</v>
       </c>
       <c r="K5">
-        <v>0.5268459388280817</v>
+        <v>0.4508998619944755</v>
       </c>
       <c r="L5">
-        <v>0.06483991244720499</v>
+        <v>0.2141581356877253</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1316274543117366</v>
       </c>
       <c r="N5">
-        <v>0.3006963709998161</v>
+        <v>0.06206409342677333</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.3223660057642661</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.546868773057327</v>
+        <v>2.550955666244306</v>
       </c>
       <c r="C6">
-        <v>0.4642632702495746</v>
+        <v>0.4946907218644867</v>
       </c>
       <c r="D6">
-        <v>0.03785590131172967</v>
+        <v>0.04265851812978383</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9973534882121626</v>
+        <v>0.8977231386525375</v>
       </c>
       <c r="G6">
-        <v>0.7681077582594611</v>
+        <v>0.6575788969057754</v>
       </c>
       <c r="H6">
-        <v>0.01018560874950016</v>
+        <v>0.008143070900027499</v>
       </c>
       <c r="I6">
-        <v>0.01022979688498005</v>
+        <v>0.007328733919035102</v>
       </c>
       <c r="J6">
-        <v>0.5631363445074555</v>
+        <v>0.5285464264356676</v>
       </c>
       <c r="K6">
-        <v>0.5254302453682023</v>
+        <v>0.4500309686062138</v>
       </c>
       <c r="L6">
-        <v>0.06462153203504251</v>
+        <v>0.2138957800216694</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1313532908534381</v>
       </c>
       <c r="N6">
-        <v>0.2991884745569138</v>
+        <v>0.06188733932136437</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.3207102009969134</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.671755432178202</v>
+        <v>2.676228418692688</v>
       </c>
       <c r="C7">
-        <v>0.4862106154870389</v>
+        <v>0.5189667206828688</v>
       </c>
       <c r="D7">
-        <v>0.03895436158033405</v>
+        <v>0.04406260018336994</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.012195287905094</v>
+        <v>0.9062101040305421</v>
       </c>
       <c r="G7">
-        <v>0.7816046167799584</v>
+        <v>0.6688646104861249</v>
       </c>
       <c r="H7">
-        <v>0.009180906780726292</v>
+        <v>0.007331013119267954</v>
       </c>
       <c r="I7">
-        <v>0.009284300982480787</v>
+        <v>0.006678539762583036</v>
       </c>
       <c r="J7">
-        <v>0.5676256098530246</v>
+        <v>0.526029461354554</v>
       </c>
       <c r="K7">
-        <v>0.526208789919913</v>
+        <v>0.4476913903258932</v>
       </c>
       <c r="L7">
-        <v>0.06570764993319589</v>
+        <v>0.2118524151107692</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1308879665318159</v>
       </c>
       <c r="N7">
-        <v>0.3121336050972872</v>
+        <v>0.06276182881379277</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.3345595588066175</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.222676583684631</v>
+        <v>3.228359480700533</v>
       </c>
       <c r="C8">
-        <v>0.5814640033225089</v>
+        <v>0.6266027112862389</v>
       </c>
       <c r="D8">
-        <v>0.04369707823462932</v>
+        <v>0.04982670650527155</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.083522130878436</v>
+        <v>0.9529815759725793</v>
       </c>
       <c r="G8">
-        <v>0.846941960712229</v>
+        <v>0.7179433845335126</v>
       </c>
       <c r="H8">
-        <v>0.005473017353895437</v>
+        <v>0.00432788047820587</v>
       </c>
       <c r="I8">
-        <v>0.005659617709135034</v>
+        <v>0.00411960179428128</v>
       </c>
       <c r="J8">
-        <v>0.5906077411414401</v>
+        <v>0.5310253521753481</v>
       </c>
       <c r="K8">
-        <v>0.5331348496243891</v>
+        <v>0.4422831984535875</v>
       </c>
       <c r="L8">
-        <v>0.07053747889333994</v>
+        <v>0.2049422086154173</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1315835359250883</v>
       </c>
       <c r="N8">
-        <v>0.3687547719895861</v>
+        <v>0.06668993649741761</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.3952653372544859</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.30422290793291</v>
+        <v>4.310045821696178</v>
       </c>
       <c r="C9">
-        <v>0.7670703827450609</v>
+        <v>0.8407517447426187</v>
       </c>
       <c r="D9">
-        <v>0.05293885828768907</v>
+        <v>0.06050465833112639</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.23797718781195</v>
+        <v>1.063739291679468</v>
       </c>
       <c r="G9">
-        <v>0.989513727381663</v>
+        <v>0.8167018040436744</v>
       </c>
       <c r="H9">
-        <v>0.001135139264772267</v>
+        <v>0.0008467745880791355</v>
       </c>
       <c r="I9">
-        <v>0.001467952242593107</v>
+        <v>0.001219548254382197</v>
       </c>
       <c r="J9">
-        <v>0.6437308690592403</v>
+        <v>0.5683000438205568</v>
       </c>
       <c r="K9">
-        <v>0.5549319583928565</v>
+        <v>0.4414165770566818</v>
       </c>
       <c r="L9">
-        <v>0.07999878773338853</v>
+        <v>0.1946440845606681</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.1412338177072137</v>
       </c>
       <c r="N9">
-        <v>0.479567980297773</v>
+        <v>0.07440613168962518</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.5143592078436257</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.100944213512662</v>
+        <v>5.10485684469819</v>
       </c>
       <c r="C10">
-        <v>0.9125023295397909</v>
+        <v>1.001087861421041</v>
       </c>
       <c r="D10">
-        <v>0.05918598968232658</v>
+        <v>0.06866033198735266</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.329885166775355</v>
+        <v>1.114856111137698</v>
       </c>
       <c r="G10">
-        <v>1.07573000712695</v>
+        <v>0.8924903296350379</v>
       </c>
       <c r="H10">
-        <v>0.0002352005919443734</v>
+        <v>0.0002127841702819211</v>
       </c>
       <c r="I10">
-        <v>0.0008924304750319578</v>
+        <v>0.001100580722821931</v>
       </c>
       <c r="J10">
-        <v>0.6737674281174577</v>
+        <v>0.5511549746531159</v>
       </c>
       <c r="K10">
-        <v>0.5599177908006823</v>
+        <v>0.4274741701090505</v>
       </c>
       <c r="L10">
-        <v>0.08539831736397829</v>
+        <v>0.1818003810690954</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.1461929346996342</v>
       </c>
       <c r="N10">
-        <v>0.5480729908768893</v>
+        <v>0.07897808808521223</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.5879948902443743</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.459815623355837</v>
+        <v>5.462560474573991</v>
       </c>
       <c r="C11">
-        <v>1.031034415210115</v>
+        <v>1.103861560450639</v>
       </c>
       <c r="D11">
-        <v>0.05542820720530983</v>
+        <v>0.06547131572171594</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.161718306021186</v>
+        <v>0.9537837282644404</v>
       </c>
       <c r="G11">
-        <v>0.9311266273784184</v>
+        <v>0.8114399129138405</v>
       </c>
       <c r="H11">
-        <v>0.01877088096201618</v>
+        <v>0.01876412888034196</v>
       </c>
       <c r="I11">
-        <v>0.00150092799047119</v>
+        <v>0.001852581357224103</v>
       </c>
       <c r="J11">
-        <v>0.5945014291100961</v>
+        <v>0.4262285745397918</v>
       </c>
       <c r="K11">
-        <v>0.4616126656852515</v>
+        <v>0.3453258495898801</v>
       </c>
       <c r="L11">
-        <v>0.08386571073828719</v>
+        <v>0.1501794781188259</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.1176657666100098</v>
       </c>
       <c r="N11">
-        <v>0.4614348216790489</v>
+        <v>0.08161307157369357</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.494660400158125</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.594144754340334</v>
+        <v>5.596592656605537</v>
       </c>
       <c r="C12">
-        <v>1.099144200352896</v>
+        <v>1.157388777409039</v>
       </c>
       <c r="D12">
-        <v>0.05096640414276621</v>
+        <v>0.06033213968210305</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.015652697646516</v>
+        <v>0.8286146033669155</v>
       </c>
       <c r="G12">
-        <v>0.8053415839152933</v>
+        <v>0.7254092197172355</v>
       </c>
       <c r="H12">
-        <v>0.05745014641050261</v>
+        <v>0.05744358009214068</v>
       </c>
       <c r="I12">
-        <v>0.001530467270466573</v>
+        <v>0.001881951268558169</v>
       </c>
       <c r="J12">
-        <v>0.5282576533649745</v>
+        <v>0.3580768586008105</v>
       </c>
       <c r="K12">
-        <v>0.3899366712551817</v>
+        <v>0.29269880158175</v>
       </c>
       <c r="L12">
-        <v>0.09286704148592761</v>
+        <v>0.1316684822463881</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.09724587285336739</v>
       </c>
       <c r="N12">
-        <v>0.3799449508698132</v>
+        <v>0.09359541417419237</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.4070262390264929</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.561902366069205</v>
+        <v>5.564884769229479</v>
       </c>
       <c r="C13">
-        <v>1.135344224013977</v>
+        <v>1.182005313465538</v>
       </c>
       <c r="D13">
-        <v>0.04596417359059046</v>
+        <v>0.05347340202484929</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.8712590686826331</v>
+        <v>0.7198946990464634</v>
       </c>
       <c r="G13">
-        <v>0.6796786250878029</v>
+        <v>0.6197935059489481</v>
       </c>
       <c r="H13">
-        <v>0.1132462138771615</v>
+        <v>0.1132257580332094</v>
       </c>
       <c r="I13">
-        <v>0.0014250152832469</v>
+        <v>0.001761078106762071</v>
       </c>
       <c r="J13">
-        <v>0.4645067581976861</v>
+        <v>0.3267027463655197</v>
       </c>
       <c r="K13">
-        <v>0.3299572555846524</v>
+        <v>0.2557364632481338</v>
       </c>
       <c r="L13">
-        <v>0.1099558693942946</v>
+        <v>0.119745167839822</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.08114973072309084</v>
       </c>
       <c r="N13">
-        <v>0.2995152725126218</v>
+        <v>0.1128673721584228</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.3205418977126442</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.463909903962303</v>
+        <v>5.467582239273554</v>
       </c>
       <c r="C14">
-        <v>1.147084650265924</v>
+        <v>1.186931043805714</v>
       </c>
       <c r="D14">
-        <v>0.04232493309205765</v>
+        <v>0.04819454136367085</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.7719337636335197</v>
+        <v>0.6502022499874016</v>
       </c>
       <c r="G14">
-        <v>0.5925219606482415</v>
+        <v>0.539328746494121</v>
       </c>
       <c r="H14">
-        <v>0.1626722888950667</v>
+        <v>0.1626260520406504</v>
       </c>
       <c r="I14">
-        <v>0.0014121617201166</v>
+        <v>0.001732873980452965</v>
       </c>
       <c r="J14">
-        <v>0.4213003814278977</v>
+        <v>0.3172290702857055</v>
       </c>
       <c r="K14">
-        <v>0.2940419383090926</v>
+        <v>0.2363026695272357</v>
       </c>
       <c r="L14">
-        <v>0.1268973801221236</v>
+        <v>0.1138353933571601</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.07191048954374679</v>
       </c>
       <c r="N14">
-        <v>0.24544259745646</v>
+        <v>0.1307965800142199</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.2624202965566553</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.404525036374991</v>
+        <v>5.40851203199577</v>
       </c>
       <c r="C15">
-        <v>1.14380134537555</v>
+        <v>1.182614791022559</v>
       </c>
       <c r="D15">
-        <v>0.04133739726226082</v>
+        <v>0.046657847541141</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.7459727410828307</v>
+        <v>0.6339680118294311</v>
       </c>
       <c r="G15">
-        <v>0.5692715999825708</v>
+        <v>0.515337046602113</v>
       </c>
       <c r="H15">
-        <v>0.1752308298757015</v>
+        <v>0.1751685285219224</v>
       </c>
       <c r="I15">
-        <v>0.001520557415610746</v>
+        <v>0.001848035987427998</v>
       </c>
       <c r="J15">
-        <v>0.4102896977908728</v>
+        <v>0.3194943217102164</v>
       </c>
       <c r="K15">
-        <v>0.286194343648269</v>
+        <v>0.2331179472688163</v>
       </c>
       <c r="L15">
-        <v>0.1313048918193331</v>
+        <v>0.1129945918526687</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.07005416162003719</v>
       </c>
       <c r="N15">
-        <v>0.2318853900212758</v>
+        <v>0.1353452166283944</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.2478366054539833</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.066734553073388</v>
+        <v>5.071989346490341</v>
       </c>
       <c r="C16">
-        <v>1.073368738799758</v>
+        <v>1.117529806318146</v>
       </c>
       <c r="D16">
-        <v>0.03984464449513325</v>
+        <v>0.04377360368825478</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.7353048723158722</v>
+        <v>0.6453657175104794</v>
       </c>
       <c r="G16">
-        <v>0.5567369672547073</v>
+        <v>0.4835172057530457</v>
       </c>
       <c r="H16">
-        <v>0.1628500842912501</v>
+        <v>0.162673866846248</v>
       </c>
       <c r="I16">
-        <v>0.001745839441208652</v>
+        <v>0.001960303414604958</v>
       </c>
       <c r="J16">
-        <v>0.4094976982817542</v>
+        <v>0.3645160116601147</v>
       </c>
       <c r="K16">
-        <v>0.2949669748026409</v>
+        <v>0.2482772603885479</v>
       </c>
       <c r="L16">
-        <v>0.1249006792294409</v>
+        <v>0.1190760712101682</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.07384707173628868</v>
       </c>
       <c r="N16">
-        <v>0.2216832508717914</v>
+        <v>0.1286108568284092</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.2369197532350995</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.860450968410476</v>
+        <v>4.866195650088059</v>
       </c>
       <c r="C17">
-        <v>1.013448005275734</v>
+        <v>1.063573469051448</v>
       </c>
       <c r="D17">
-        <v>0.04060028442451369</v>
+        <v>0.04436459296705664</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.7786465735718053</v>
+        <v>0.6894296287664829</v>
       </c>
       <c r="G17">
-        <v>0.5923461477145793</v>
+        <v>0.503110502078556</v>
       </c>
       <c r="H17">
-        <v>0.125348913714987</v>
+        <v>0.1250889950073173</v>
       </c>
       <c r="I17">
-        <v>0.002002121961903747</v>
+        <v>0.002125738632320129</v>
       </c>
       <c r="J17">
-        <v>0.4313947262552347</v>
+        <v>0.4024920341911127</v>
       </c>
       <c r="K17">
-        <v>0.3199431765681027</v>
+        <v>0.2701551795388184</v>
       </c>
       <c r="L17">
-        <v>0.1101165320100712</v>
+        <v>0.1274076157589086</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.08118161600470053</v>
       </c>
       <c r="N17">
-        <v>0.2415011159824019</v>
+        <v>0.1132004788534147</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.2582164107670764</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.743005526008631</v>
+        <v>4.748862347450483</v>
       </c>
       <c r="C18">
-        <v>0.9543260111445022</v>
+        <v>1.01351900090657</v>
       </c>
       <c r="D18">
-        <v>0.04343057697024122</v>
+        <v>0.04777614744321568</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.8808687791258478</v>
+        <v>0.7763339061932157</v>
       </c>
       <c r="G18">
-        <v>0.6803731154831212</v>
+        <v>0.5686262745192465</v>
       </c>
       <c r="H18">
-        <v>0.0726071142316087</v>
+        <v>0.07232207494386245</v>
       </c>
       <c r="I18">
-        <v>0.001864151883890663</v>
+        <v>0.001903810243892856</v>
       </c>
       <c r="J18">
-        <v>0.4786875121247789</v>
+        <v>0.4491838910338117</v>
       </c>
       <c r="K18">
-        <v>0.3673116177114899</v>
+        <v>0.3056661895470683</v>
       </c>
       <c r="L18">
-        <v>0.09163388621751878</v>
+        <v>0.140713827276036</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.09419276804327481</v>
       </c>
       <c r="N18">
-        <v>0.2929223742004012</v>
+        <v>0.09341161203305859</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.3134906932589274</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.704980074706498</v>
+        <v>4.710692725355216</v>
       </c>
       <c r="C19">
-        <v>0.9065488199700269</v>
+        <v>0.9767977466543982</v>
       </c>
       <c r="D19">
-        <v>0.0482320540449237</v>
+        <v>0.05371170674095538</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.024373908346305</v>
+        <v>0.8928921034234634</v>
       </c>
       <c r="G19">
-        <v>0.804588268466631</v>
+        <v>0.663725493824856</v>
       </c>
       <c r="H19">
-        <v>0.02717676168341399</v>
+        <v>0.02693457088862061</v>
       </c>
       <c r="I19">
-        <v>0.001921915212828473</v>
+        <v>0.002014694189560018</v>
       </c>
       <c r="J19">
-        <v>0.5428565630009956</v>
+        <v>0.5022467750424795</v>
       </c>
       <c r="K19">
-        <v>0.4322078154286402</v>
+        <v>0.351660331078854</v>
       </c>
       <c r="L19">
-        <v>0.07954986274442888</v>
+        <v>0.1577545478741023</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.1116438028860038</v>
       </c>
       <c r="N19">
-        <v>0.3736198556354111</v>
+        <v>0.07897567166667052</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.4001437031748765</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.891236234849998</v>
+        <v>4.89595851063234</v>
       </c>
       <c r="C20">
-        <v>0.8819141110847113</v>
+        <v>0.9697262002542857</v>
       </c>
       <c r="D20">
-        <v>0.05799788639542669</v>
+        <v>0.06632441307524317</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.290496993286084</v>
+        <v>1.096452517521627</v>
       </c>
       <c r="G20">
-        <v>1.037836855576145</v>
+        <v>0.8495988393967338</v>
       </c>
       <c r="H20">
-        <v>0.0003175216830406669</v>
+        <v>0.0002475305334659339</v>
       </c>
       <c r="I20">
-        <v>0.001665933556195931</v>
+        <v>0.001949180201182621</v>
       </c>
       <c r="J20">
-        <v>0.6580941300310315</v>
+        <v>0.5715479295162567</v>
       </c>
       <c r="K20">
-        <v>0.5492633771315667</v>
+        <v>0.427464884241207</v>
       </c>
       <c r="L20">
-        <v>0.08352820078807532</v>
+        <v>0.1838276925577667</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.1433028762801207</v>
       </c>
       <c r="N20">
-        <v>0.5318978886236891</v>
+        <v>0.07756028794179848</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.5702756253283212</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.50474402664122</v>
+        <v>5.506351539562331</v>
       </c>
       <c r="C21">
-        <v>0.9849088658199321</v>
+        <v>1.069076213855539</v>
       </c>
       <c r="D21">
-        <v>0.0640361400712095</v>
+        <v>0.07777932367955032</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.403540547605516</v>
+        <v>1.128592232153338</v>
       </c>
       <c r="G21">
-        <v>1.141768547819311</v>
+        <v>0.9937253867767595</v>
       </c>
       <c r="H21">
-        <v>6.460017329534828E-05</v>
+        <v>6.33014271378407E-05</v>
       </c>
       <c r="I21">
-        <v>0.001888163486667871</v>
+        <v>0.002282292208160897</v>
       </c>
       <c r="J21">
-        <v>0.7003429905228415</v>
+        <v>0.4645016278770271</v>
       </c>
       <c r="K21">
-        <v>0.5742780545796791</v>
+        <v>0.4137294932353726</v>
       </c>
       <c r="L21">
-        <v>0.08993697923095301</v>
+        <v>0.1731765133942744</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.1464586577232616</v>
       </c>
       <c r="N21">
-        <v>0.6065833015051254</v>
+        <v>0.08194940051544197</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.6507802372341871</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.906755267569054</v>
+        <v>5.905719994468654</v>
       </c>
       <c r="C22">
-        <v>1.052467712156243</v>
+        <v>1.132027125515663</v>
       </c>
       <c r="D22">
-        <v>0.06740789924627677</v>
+        <v>0.08507209779410374</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.472130049996295</v>
+        <v>1.142002325931003</v>
       </c>
       <c r="G22">
-        <v>1.206057886411628</v>
+        <v>1.093594642058591</v>
       </c>
       <c r="H22">
-        <v>0.0004710423026141886</v>
+        <v>0.0003927959946325998</v>
       </c>
       <c r="I22">
-        <v>0.002279136863833742</v>
+        <v>0.002514295104091957</v>
       </c>
       <c r="J22">
-        <v>0.7261769334401436</v>
+        <v>0.395823092579846</v>
       </c>
       <c r="K22">
-        <v>0.5887705427232319</v>
+        <v>0.4024032938053352</v>
       </c>
       <c r="L22">
-        <v>0.09359871374379658</v>
+        <v>0.165588736166459</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.1478593993634369</v>
       </c>
       <c r="N22">
-        <v>0.6473401071594651</v>
+        <v>0.08451399413593874</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.6948709938718878</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.692184721204171</v>
+        <v>5.692714401745263</v>
       </c>
       <c r="C23">
-        <v>1.013454218878195</v>
+        <v>1.097958622695103</v>
       </c>
       <c r="D23">
-        <v>0.06541067607017226</v>
+        <v>0.08042594823816529</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.440676040671377</v>
+        <v>1.144686016791113</v>
       </c>
       <c r="G23">
-        <v>1.176945121823678</v>
+        <v>1.036252502007201</v>
       </c>
       <c r="H23">
-        <v>0.0002103929743846322</v>
+        <v>0.0001863888725044394</v>
       </c>
       <c r="I23">
-        <v>0.001723446326625577</v>
+        <v>0.001999644596801353</v>
       </c>
       <c r="J23">
-        <v>0.7150260898941383</v>
+        <v>0.4462915595302803</v>
       </c>
       <c r="K23">
-        <v>0.5842793704263869</v>
+        <v>0.4132055741389351</v>
       </c>
       <c r="L23">
-        <v>0.0917973449895122</v>
+        <v>0.1712113498254411</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.149073719981395</v>
       </c>
       <c r="N23">
-        <v>0.6246075869006944</v>
+        <v>0.08330092251798948</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.6703803580990098</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.881745220944481</v>
+        <v>4.886449361273833</v>
       </c>
       <c r="C24">
-        <v>0.8716795118102425</v>
+        <v>0.9605026625657729</v>
       </c>
       <c r="D24">
-        <v>0.05825783601338941</v>
+        <v>0.0667026700194242</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.315968614267561</v>
+        <v>1.117499809604013</v>
       </c>
       <c r="G24">
-        <v>1.061078582958672</v>
+        <v>0.8674595155964653</v>
       </c>
       <c r="H24">
-        <v>0.0001779348914734413</v>
+        <v>0.0001127356132579749</v>
       </c>
       <c r="I24">
-        <v>0.001169757060319299</v>
+        <v>0.001355585556428451</v>
       </c>
       <c r="J24">
-        <v>0.6700348538838341</v>
+        <v>0.5820923140222334</v>
       </c>
       <c r="K24">
-        <v>0.5633219170731607</v>
+        <v>0.4378479908927559</v>
       </c>
       <c r="L24">
-        <v>0.08476605337191945</v>
+        <v>0.187666559313076</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.1472411850550763</v>
       </c>
       <c r="N24">
-        <v>0.5406019921891954</v>
+        <v>0.07828807704687524</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.5798155328626109</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.011210279686452</v>
+        <v>4.017330737788996</v>
       </c>
       <c r="C25">
-        <v>0.720799660880175</v>
+        <v>0.7878853098626166</v>
       </c>
       <c r="D25">
-        <v>0.05069981836723514</v>
+        <v>0.05762276635477548</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.187290217153233</v>
+        <v>1.029505214562462</v>
       </c>
       <c r="G25">
-        <v>0.9419863395470713</v>
+        <v>0.7783992416452605</v>
       </c>
       <c r="H25">
-        <v>0.001975244269716625</v>
+        <v>0.001507131562388575</v>
       </c>
       <c r="I25">
-        <v>0.002663692873003498</v>
+        <v>0.00222437785366747</v>
       </c>
       <c r="J25">
-        <v>0.6247238710036243</v>
+        <v>0.5637836792261197</v>
       </c>
       <c r="K25">
-        <v>0.5435546763164965</v>
+        <v>0.4388569189866054</v>
       </c>
       <c r="L25">
-        <v>0.07721952219616579</v>
+        <v>0.1964548510662247</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.1370442009929143</v>
       </c>
       <c r="N25">
-        <v>0.4508651216222859</v>
+        <v>0.07220943428352911</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.4833107143773532</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
